--- a/Model 1_29/sepsis output.xlsx
+++ b/Model 1_29/sepsis output.xlsx
@@ -20,92 +20,98 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="298">
+  <si>
+    <t>{2000., 0.4159999999999999}</t>
+  </si>
+  <si>
+    <t>{2001., 0.08924949290060852}</t>
+  </si>
+  <si>
+    <t>{2002., 0.}</t>
+  </si>
+  <si>
+    <t>{2003., 0.23688311688311692}</t>
+  </si>
+  <si>
+    <t>{2004., 0.18000000000000002}</t>
+  </si>
+  <si>
+    <t>{2005., 0.07752747252747254}</t>
+  </si>
+  <si>
+    <t>{2006., 0.1657791357485814}</t>
+  </si>
+  <si>
+    <t>{2007., 0.2316625850340136}</t>
+  </si>
+  <si>
+    <t>{2008., 0.155521978021978}</t>
+  </si>
+  <si>
+    <t>{2009., 0.13309635591325733}</t>
+  </si>
+  <si>
+    <t>{2010., 0.15954873328641803}</t>
+  </si>
+  <si>
+    <t>{2011., 0.16728192255158922}</t>
+  </si>
+  <si>
+    <t>{2012., 0.21894146752289714}</t>
+  </si>
+  <si>
+    <t>{2013., 0.17598505434782613}</t>
+  </si>
+  <si>
+    <t>{2014., 0.1420597891137076}</t>
+  </si>
+  <si>
+    <t>{2000., 0.288}</t>
+  </si>
+  <si>
+    <t>{2001., 0.07809330628803246}</t>
+  </si>
+  <si>
+    <t>{2003., 0.22441558441558437}</t>
+  </si>
+  <si>
+    <t>{2004., 0.16199999999999998}</t>
+  </si>
+  <si>
+    <t>{2005., 0.10489010989010988}</t>
+  </si>
+  <si>
+    <t>{2006., 0.19340899170667833}</t>
+  </si>
+  <si>
+    <t>{2007., 0.476952380952381}</t>
+  </si>
+  <si>
+    <t>{2008., 0.3369642857142857}</t>
+  </si>
+  <si>
+    <t>{2009., 0.3914598703331097}</t>
+  </si>
+  <si>
+    <t>{2010., 0.35100721323011963}</t>
+  </si>
+  <si>
+    <t>{2011., 0.32575953338993696}</t>
+  </si>
+  <si>
+    <t>{2012., 0.3765793241393831}</t>
+  </si>
+  <si>
+    <t>{2013., 0.47515964673913036}</t>
+  </si>
+  <si>
+    <t>{2014., 0.3663647192932459}</t>
+  </si>
   <si>
     <t>{2000., 0.}</t>
   </si>
   <si>
-    <t>{2001., 0.11126736885598341}</t>
-  </si>
-  <si>
-    <t>{2002., 0.}</t>
-  </si>
-  <si>
-    <t>{2003., 0.12058326561278157}</t>
-  </si>
-  <si>
-    <t>{2004., 0.22763466042154576}</t>
-  </si>
-  <si>
-    <t>{2005., 0.05339256420079883}</t>
-  </si>
-  <si>
-    <t>{2006., 0.19367067702189344}</t>
-  </si>
-  <si>
-    <t>{2007., 0.13869239490791976}</t>
-  </si>
-  <si>
-    <t>{2008., 0.11516301400791792}</t>
-  </si>
-  <si>
-    <t>{2009., 0.10239238196170337}</t>
-  </si>
-  <si>
-    <t>{2010., 0.18009203122670606}</t>
-  </si>
-  <si>
-    <t>{2011., 0.14019379796116563}</t>
-  </si>
-  <si>
-    <t>{2012., 0.2170816507398018}</t>
-  </si>
-  <si>
-    <t>{2013., 0.13307688158991338}</t>
-  </si>
-  <si>
-    <t>{2014., 0.13621710416453445}</t>
-  </si>
-  <si>
-    <t>{2001., 0.09735894774898546}</t>
-  </si>
-  <si>
-    <t>{2003., 0.11423677794895093}</t>
-  </si>
-  <si>
-    <t>{2004., 0.20487119437939114}</t>
-  </si>
-  <si>
-    <t>{2005., 0.0722369986246102}</t>
-  </si>
-  <si>
-    <t>{2006., 0.22594912319220894}</t>
-  </si>
-  <si>
-    <t>{2007., 0.2855431659868936}</t>
-  </si>
-  <si>
-    <t>{2008., 0.24951986368382215}</t>
-  </si>
-  <si>
-    <t>{2009., 0.3011540645932451}</t>
-  </si>
-  <si>
-    <t>{2010., 0.3962024686987534}</t>
-  </si>
-  <si>
-    <t>{2011., 0.27300897497700666}</t>
-  </si>
-  <si>
-    <t>{2012., 0.37338043927245906}</t>
-  </si>
-  <si>
-    <t>{2013., 0.3593075802927661}</t>
-  </si>
-  <si>
-    <t>{2014., 0.3512967423190626}</t>
-  </si>
-  <si>
     <t>{2001., 0.}</t>
   </si>
   <si>
@@ -145,286 +151,286 @@
     <t>{2014., 0.06574042950513538}</t>
   </si>
   <si>
-    <t>{{2000., 0.07218660544386613}, {2001., 0.07616263784320915}, {2002., 0.08437427493994258}, {2003., 0.09011605802931937}, {2004., 0.0906488904407933}, {2005., 0.09204494941312207}, {2006., 0.10622546411253422}, {2007., 0.12403569605994284}, {2008., 0.12933143366836}, {2009., 0.13445245000167458}, {2010., 0.13083739016027007}, {2011., 0.1194555033085737}, {2012., 0.1167805067258974}, {2013., 0.11403922761190627}, {2014., 0.11595155282650976}, {2015., 0.1282855618177683}, {2016., 0.13780471169834557}, {2017., 0.14212903468069918}, {2018., 0.14656598780966826}, {2019., 0.1511170534142185}, {2020., 0.15578364000181188}, {2021., 0.16056707563099812}, {2022., 0.16546860113585837}, {2023., 0.17048936322171612}, {2024., 0.17563040745383476}, {2025., 0.1808926711631375}, {2026., 0.18627697629536247}, {2027., 0.19178402223242483}, {2028., 0.1974143786170667}, {2029., 0.203168478214176}, {2030., 0.20904660984436915}, {2031., 0.21504891142749719}, {2032., 0.2211753631757256}, {2033., 0.22742578097763008}, {2034., 0.23379981001630773}, {2035., 0.24029691866588593}, {2036., 0.24691639271189078}, {2037., 0.25365732994168394}, {2038., 0.26051863515164725}, {2039., 0.26749901561786554}, {2040., 0.2745969770767025}}</t>
-  </si>
-  <si>
-    <t>{{2000., 0.09285026129328698}, {2001., 0.09896181402583785}, {2002., 0.11172078167472611}, {2003., 0.12073687668503039}, {2004., 0.12157705251762468}, {2005., 0.12378100021039}, {2006., 0.14635403643551023}, {2007., 0.17504793835049826}, {2008., 0.1836245935769163}, {2009., 0.1919294947706801}, {2010., 0.18606589110107988}, {2011., 0.16764322264318665}, {2012., 0.16332557554807683}, {2013., 0.1589071454965711}, {2014., 0.1619887611276031}, {2015., 0.18192968798662945}, {2016., 0.19736997632594483}, {2017., 0.2043907373966855}, {2018., 0.2115953997762415}, {2019., 0.21898412231788641}, {2020., 0.22655671114359005}, {2021., 0.23431260227945475}, {2022., 0.24225084514647102}, {2023., 0.25037008708569847}, {2024., 0.2586685591009258}, {2025., 0.26714406300378707}, {2026., 0.27579396014611784}, {2027., 0.28461516192171366}, {2028., 0.2936041222144222}, {2029., 0.30275683196164244}, {2030., 0.31206881599160746}, {2031., 0.3215351322792264}, {2032., 0.33115037374889794}, {2033., 0.34090867273351366}, {2034., 0.3508037081769583}, {2035., 0.36082871564312013}, {2036., 0.37097650016786216}, {2037., 0.3812394519618812}, {2038., 0.3916095649424347}, {2039., 0.40207845804081166}, {2040., 0.4126373992006673}}</t>
-  </si>
-  <si>
-    <t>{{2000., 0.05028514570122228}, {2001., 0.06155753198683107}, {2002., 0.09009322763372081}, {2003., 0.1144861306936306}, {2004., 0.11378577158147919}, {2005., 0.11328604536871704}, {2006., 0.17063925512371367}, {2007., 0.2549520748664947}, {2008., 0.2676013273450779}, {2009., 0.27669608993158595}, {2010., 0.241896612092387}, {2011., 0.17735064697379455}, {2012., 0.16148944510363147}, {2013., 0.151282621153896}, {2014., 0.15836798470721727}, {2015., 0.20774051092246187}, {2016., 0.2496153738061236}, {2017., 0.26950678467965633}, {2018., 0.29036993006001766}, {2019., 0.31215798255951527}, {2020., 0.3348095632485544}, {2021., 0.3582487557206869}, {2022., 0.38238558325237026}, {2023., 0.40711697723920875}, {2024., 0.43232823866283654}, {2025., 0.4578949646184575}, {2026., 0.4836853814141134}, {2027., 0.5095629973415865}, {2028., 0.5353894648530519}, {2029., 0.5610275261143064}, {2030., 0.5862689847382666}, {2031., 0.6109451665134659}, {2032., 0.6350657122280399}, {2033., 0.6585266671453409}, {2034., 0.6812364141631624}, {2035., 0.7031167402607766}, {2036., 0.7241034310496842}, {2037., 0.7441464132635623}, {2038., 0.7632094865801077}, {2039., 0.7812697021741177}, {2040., 0.7983164554008593}}</t>
-  </si>
-  <si>
-    <t>{{2000., 0.0746980545419653}, {2001., 0.09460577102028109}, {2002., 0.14645460275982497}, {2003., 0.19133872222722204}, {2004., 0.19005106328753754}, {2005., 0.18913214033274903}, {2006., 0.29282643722604296}, {2007., 0.43317378802430134}, {2008., 0.4526519990589529}, {2009., 0.46638759770154636}, {2010., 0.41261769909246504}, {2011., 0.30460977079741847}, {2012., 0.2766187465512695}, {2013., 0.25835925360676204}, {2014., 0.2710538203639345}, {2015., 0.3567285105444272}, {2016., 0.42482621849915236}, {2017., 0.45554846513305525}, {2018., 0.4866127998705204}, {2019., 0.5177953811913205}, {2020., 0.5488865781076491}, {2021., 0.5796007008126928}, {2022., 0.6097105920986924}, {2023., 0.6390071040150179}, {2024., 0.6673044796601721}, {2025., 0.6944443563650384}, {2026., 0.720298260852084}, {2027., 0.744768600041293}, {2028., 0.7677882671053934}, {2029., 0.7893190696961945}, {2030., 0.8093492406189574}, {2031., 0.8278903110539102}, {2032., 0.8449736175703174}, {2033., 0.8606466840935562}, {2034., 0.8749696768990056}, {2035., 0.888012082214837}, {2036., 0.8998497082029077}, {2037., 0.9105620701698569}, {2038., 0.920230182239662}, {2039., 0.9289347512795552}, {2040., 0.9367547493933746}}</t>
-  </si>
-  <si>
-    <t>{{2000., 0.0010583847976785457}, {2001., 0.0012519192041356348}, {2002., 0.0017287249744525758}, {2003., 0.0021305475968390088}, {2004., 0.0023439973295611705}, {2005., 0.002907409967000532}, {2006., 0.006072165261578418}, {2007., 0.014153645843109085}, {2008., 0.021309421005828163}, {2009., 0.032301755972347614}, {2010., 0.03459350248920925}, {2011., 0.02627196755145181}, {2012., 0.025508368082390615}, {2013., 0.022413161550785737}, {2014., 0.02453776635235419}, {2015., 0.04251512781819999}, {2016., 0.06256242065354511}, {2017., 0.07380383838381055}, {2018., 0.08687795465029702}, {2019., 0.10201301632683264}, {2020., 0.11943987738130579}, {2021., 0.13938168394028447}, {2022., 0.16204030126030022}, {2023., 0.18757956917943375}, {2024., 0.21610600019937468}, {2025., 0.2476482262676124}, {2026., 0.2821372730782666}, {2027., 0.3193904299727848}, {2028., 0.3591018556391292}, {2029., 0.4008428653244976}, {2030., 0.4440739145648177}, {2031., 0.4881686472440971}, {2032., 0.5324482890909741}, {2033., 0.576222643431157}, {2034., 0.6188325597851121}, {2035., 0.6596884275587469}, {2036., 0.6983000987569783}, {2037., 0.7342953948717325}, {2038., 0.7674264783802678}, {2039., 0.7975653021401431}, {2040., 0.8246906814045065}}</t>
-  </si>
-  <si>
-    <t>{{2000., 0.001524456037491669}, {2001., 0.0018669449931142854}, {2002., 0.0027556333197386335}, {2003., 0.0035455593401978605}, {2004., 0.003978113254347905}, {2005., 0.005157232114011788}, {2006., 0.012504267592986113}, {2007., 0.0343097031873255}, {2008., 0.055485469801181596}, {2009., 0.08959113270099027}, {2010., 0.09682515247298448}, {2011., 0.07072378134999256}, {2012., 0.06835824916119214}, {2013., 0.05884442920639048}, {2014., 0.06536130056590012}, {2015., 0.1219505157560037}, {2016., 0.18511245165448928}, {2017., 0.21960149618514388}, {2018., 0.2584781051127203}, {2019., 0.30157749183504207}, {2020., 0.3484860159553244}, {2021., 0.3985275055923061}, {2022., 0.45078293557361643}, {2023., 0.5041470682235987}, {2024., 0.5574168835018359}, {2025., 0.6093977972174427}, {2026., 0.659008316143632}, {2027., 0.7053642596063557}, {2028., 0.7478297715886438}, {2029., 0.78603140165402}, {2030., 0.8199065396128408}, {2031., 0.849448252691262}, {2032., 0.874883552309026}, {2033., 0.8965449910820125}, {2034., 0.9148213045393498}, {2035., 0.9301205864347538}, {2036., 0.9428435918175864}, {2037., 0.95336625110463}, {2038., 0.9620296757928173}, {2039., 0.9691357497833247}, {2040., 0.9749465688368683}}</t>
-  </si>
-  <si>
-    <t>{{2014., 0.11595155282650976}, {2015., 0.1212336760590929}, {2016., 0.1212336760590929}, {2017., 0.1212336760590929}, {2018., 0.11732805634930073}, {2019., 0.10984348404127461}, {2020., 0.10278077021309323}, {2021., 0.09612313685363423}, {2022., 0.0898535641244444}, {2023., 0.08395493781571374}, {2024., 0.0811393878623713}, {2025., 0.0811393878623713}, {2026., 0.0811393878623713}, {2027., 0.0811393878623713}, {2028., 0.0811393878623713}, {2029., 0.0811393878623713}, {2030., 0.0811393878623713}, {2031., 0.0811393878623713}, {2032., 0.0811393878623713}, {2033., 0.0811393878623713}, {2034., 0.0811393878623713}, {2035., 0.0811393878623713}, {2036., 0.0811393878623713}, {2037., 0.0811393878623713}, {2038., 0.0811393878623713}, {2039., 0.0811393878623713}, {2040., 0.0811393878623713}}</t>
-  </si>
-  <si>
-    <t>{{2014., 0.1619887611276031}, {2015., 0.17051629961557407}, {2016., 0.17051629961557407}, {2017., 0.17051629961557407}, {2018., 0.16420889841857955}, {2019., 0.15215826241456148}, {2020., 0.14084294900547742}, {2021., 0.13023984289381801}, {2022., 0.12032318114536324}, {2023., 0.11106516961790543}, {2024., 0.10667405629988563}, {2025., 0.10667405629988563}, {2026., 0.10667405629988563}, {2027., 0.10667405629988563}, {2028., 0.10667405629988563}, {2029., 0.10667405629988563}, {2030., 0.10667405629988563}, {2031., 0.10667405629988563}, {2032., 0.10667405629988563}, {2033., 0.10667405629988563}, {2034., 0.10667405629988563}, {2035., 0.10667405629988563}, {2036., 0.10667405629988563}, {2037., 0.10667405629988563}, {2038., 0.10667405629988563}, {2039., 0.10667405629988563}, {2040., 0.10667405629988563}}</t>
-  </si>
-  <si>
-    <t>{{2014., 0.15836798470721727}, {2015., 0.17876097846805775}, {2016., 0.17876097846805775}, {2017., 0.17876097846805775}, {2018., 0.16356766301791023}, {2019., 0.13631644738971713}, {2020., 0.11299209845184977}, {2021., 0.09322786280287669}, {2022., 0.07662209391162624}, {2023., 0.0627693993624462}, {2024., 0.05675319844732071}, {2025., 0.05675319844732071}, {2026., 0.05675319844732071}, {2027., 0.05675319844732071}, {2028., 0.05675319844732071}, {2029., 0.05675319844732071}, {2030., 0.05675319844732071}, {2031., 0.05675319844732071}, {2032., 0.05675319844732071}, {2033., 0.05675319844732071}, {2034., 0.05675319844732071}, {2035., 0.05675319844732071}, {2036., 0.05675319844732071}, {2037., 0.05675319844732071}, {2038., 0.05675319844732071}, {2039., 0.05675319844732071}, {2040., 0.05675319844732071}}</t>
-  </si>
-  <si>
-    <t>{{2014., 0.2710538203639345}, {2015., 0.3070740881782652}, {2016., 0.3070740881782652}, {2017., 0.3070740881782652}, {2018., 0.2803139576278486}, {2019., 0.2312891262819421}, {2020., 0.18859156251270215}, {2021., 0.15221546462929894}, {2022., 0.1218024580622124}, {2023., 0.09677241443542602}, {2024., 0.08606289799830687}, {2025., 0.08606289799830687}, {2026., 0.08606289799830687}, {2027., 0.08606289799830687}, {2028., 0.08606289799830687}, {2029., 0.08606289799830687}, {2030., 0.08606289799830687}, {2031., 0.08606289799830687}, {2032., 0.08606289799830687}, {2033., 0.08606289799830687}, {2034., 0.08606289799830687}, {2035., 0.08606289799830687}, {2036., 0.08606289799830687}, {2037., 0.08606289799830687}, {2038., 0.08606289799830687}, {2039., 0.08606289799830687}, {2040., 0.08606289799830687}}</t>
-  </si>
-  <si>
-    <t>{{2014., 0.02453776635235419}, {2015., 0.031272037692039865}, {2016., 0.031272037692039865}, {2017., 0.031272037692039865}, {2018., 0.02616645973462761}, {2019., 0.01827518560008703}, {2020., 0.012732643913902407}, {2021., 0.008855893955589347}, {2022., 0.006152155349769605}, {2023., 0.004270322092211962}, {2024., 0.003556948351179677}, {2025., 0.003556948351179677}, {2026., 0.003556948351179677}, {2027., 0.003556948351179677}, {2028., 0.003556948351179677}, {2029., 0.003556948351179677}, {2030., 0.003556948351179677}, {2031., 0.003556948351179677}, {2032., 0.003556948351179677}, {2033., 0.003556948351179677}, {2034., 0.003556948351179677}, {2035., 0.003556948351179677}, {2036., 0.003556948351179677}, {2037., 0.003556948351179677}, {2038., 0.003556948351179677}, {2039., 0.003556948351179677}, {2040., 0.003556948351179677}}</t>
-  </si>
-  <si>
-    <t>{{2014., 0.06536130056590012}, {2015., 0.08634987683769749}, {2016., 0.08634987683769749}, {2017., 0.08634987683769749}, {2018., 0.07039654572837659}, {2019., 0.046363897295849166}, {2020., 0.030268600366954824}, {2021., 0.019645702743431026}, {2022., 0.012702123903575004}, {2023., 0.008192176528946098}, {2024., 0.006574743053923658}, {2025., 0.006574743053923658}, {2026., 0.006574743053923658}, {2027., 0.006574743053923658}, {2028., 0.006574743053923658}, {2029., 0.006574743053923658}, {2030., 0.006574743053923658}, {2031., 0.006574743053923658}, {2032., 0.006574743053923658}, {2033., 0.006574743053923658}, {2034., 0.006574743053923658}, {2035., 0.006574743053923658}, {2036., 0.006574743053923658}, {2037., 0.006574743053923658}, {2038., 0.006574743053923658}, {2039., 0.006574743053923658}, {2040., 0.006574743053923658}}</t>
-  </si>
-  <si>
-    <t>{2000., 0.08242847853583281}</t>
-  </si>
-  <si>
-    <t>{2001., 0.08742490319322622}</t>
-  </si>
-  <si>
-    <t>{2002., 0.09780356102908691}</t>
-  </si>
-  <si>
-    <t>{2003., 0.10510222449090255}</t>
-  </si>
-  <si>
-    <t>{2004., 0.10578108483486162}</t>
-  </si>
-  <si>
-    <t>{2005., 0.10756092254197129}</t>
-  </si>
-  <si>
-    <t>{2006., 0.12572448334264158}</t>
-  </si>
-  <si>
-    <t>{2007., 0.14870179874818196}</t>
-  </si>
-  <si>
-    <t>{2008., 0.15555799625202021}</t>
-  </si>
-  <si>
-    <t>{2009., 0.1621952748896135}</t>
-  </si>
-  <si>
-    <t>{2010., 0.15750917477648907}</t>
-  </si>
-  <si>
-    <t>{2011., 0.1427795503875826}</t>
-  </si>
-  <si>
-    <t>{2012., 0.1393245134450612}</t>
-  </si>
-  <si>
-    <t>{2013., 0.1357870848882355}</t>
-  </si>
-  <si>
-    <t>{2014., 0.13825444989922606}</t>
-  </si>
-  <si>
-    <t>{2015., 0.1542032829064677}</t>
-  </si>
-  <si>
-    <t>{2016., 0.1665432230031768}</t>
-  </si>
-  <si>
-    <t>{2017., 0.17215483565968592}</t>
-  </si>
-  <si>
-    <t>{2018., 0.17791516701885496}</t>
-  </si>
-  <si>
-    <t>{2019., 0.1838254412271157}</t>
-  </si>
-  <si>
-    <t>{2020., 0.1898867021933838}</t>
-  </si>
-  <si>
-    <t>{2021., 0.19609980146483286}</t>
-  </si>
-  <si>
-    <t>{2022., 0.20246538614283496}</t>
-  </si>
-  <si>
-    <t>{2023., 0.2089838869113558}</t>
-  </si>
-  <si>
-    <t>{2024., 0.21565550625503943}</t>
-  </si>
-  <si>
-    <t>{2025., 0.2224802069487948}</t>
-  </si>
-  <si>
-    <t>{2026., 0.229457700904915}</t>
-  </si>
-  <si>
-    <t>{2027., 0.23658743846743088}</t>
-  </si>
-  <si>
-    <t>{2028., 0.2438685982464325}</t>
-  </si>
-  <si>
-    <t>{2029., 0.2513000775874701}</t>
-  </si>
-  <si>
-    <t>{2030., 0.2588804837727035}</t>
-  </si>
-  <si>
-    <t>{2031., 0.2666081260510788}</t>
-  </si>
-  <si>
-    <t>{2032., 0.27448100859452346}</t>
-  </si>
-  <si>
-    <t>{2033., 0.28249682447576396}</t>
-  </si>
-  <si>
-    <t>{2034., 0.2906529507608132}</t>
-  </si>
-  <si>
-    <t>{2035., 0.29894644480552185}</t>
-  </si>
-  <si>
-    <t>{2036., 0.30737404184066147}</t>
-  </si>
-  <si>
-    <t>{2037., 0.3159321539238069}</t>
-  </si>
-  <si>
-    <t>{2038., 0.3246168703289026}</t>
-  </si>
-  <si>
-    <t>{2039., 0.3334239594357506}</t>
-  </si>
-  <si>
-    <t>{2040., 0.34234887217177035}</t>
-  </si>
-  <si>
-    <t>{2000., 0.0615282084501236}</t>
-  </si>
-  <si>
-    <t>{2001., 0.07664202576015752}</t>
-  </si>
-  <si>
-    <t>{2002., 0.11553195695038392}</t>
-  </si>
-  <si>
-    <t>{2003., 0.14910333086964733}</t>
-  </si>
-  <si>
-    <t>{2004., 0.14813814690478053}</t>
-  </si>
-  <si>
-    <t>{2005., 0.14744947068501718}</t>
-  </si>
-  <si>
-    <t>{2006., 0.22617976420777286}</t>
-  </si>
-  <si>
-    <t>{2007., 0.3385456178983601}</t>
-  </si>
-  <si>
-    <t>{2008., 0.3548927529558392}</t>
-  </si>
-  <si>
-    <t>{2009., 0.36655236293420845}</t>
-  </si>
-  <si>
-    <t>{2010., 0.3215194100915146}</t>
-  </si>
-  <si>
-    <t>{2011., 0.2353076626049348}</t>
-  </si>
-  <si>
-    <t>{2012., 0.21369705265247022}</t>
-  </si>
-  <si>
-    <t>{2013., 0.1997263297944164}</t>
-  </si>
-  <si>
-    <t>{2014., 0.2094293070954789}</t>
-  </si>
-  <si>
-    <t>{2015., 0.2762864534932193}</t>
-  </si>
-  <si>
-    <t>{2016., 0.3316043488338738}</t>
-  </si>
-  <si>
-    <t>{2017., 0.3573421645499457}</t>
-  </si>
-  <si>
-    <t>{2018., 0.3839301763595267}</t>
-  </si>
-  <si>
-    <t>{2019., 0.41123058528140005}</t>
-  </si>
-  <si>
-    <t>{2020., 0.439088671721234}</t>
-  </si>
-  <si>
-    <t>{2021., 0.46733599160752126}</t>
-  </si>
-  <si>
-    <t>{2022., 0.4957942728003091}</t>
-  </si>
-  <si>
-    <t>{2023., 0.5242798309057957}</t>
-  </si>
-  <si>
-    <t>{2024., 0.5526082773470115}</t>
-  </si>
-  <si>
-    <t>{2025., 0.5805992657798937}</t>
-  </si>
-  <si>
-    <t>{2026., 0.608081019396016}</t>
-  </si>
-  <si>
-    <t>{2027., 0.6348944018130629}</t>
-  </si>
-  <si>
-    <t>{2028., 0.6608963353257902}</t>
-  </si>
-  <si>
-    <t>{2029., 0.6859624267276042}</t>
-  </si>
-  <si>
-    <t>{2030., 0.7099887254599051}</t>
-  </si>
-  <si>
-    <t>{2031., 0.7328926038211137}</t>
-  </si>
-  <si>
-    <t>{2032., 0.7546128074924162}</t>
-  </si>
-  <si>
-    <t>{2033., 0.7751087715672117}</t>
-  </si>
-  <si>
-    <t>{2034., 0.7943593296778579}</t>
-  </si>
-  <si>
-    <t>{2035., 0.8123609610094343}</t>
-  </si>
-  <si>
-    <t>{2036., 0.8291257231801286}</t>
-  </si>
-  <si>
-    <t>{2037., 0.8446790106757075}</t>
-  </si>
-  <si>
-    <t>{2038., 0.8590572619567174}</t>
-  </si>
-  <si>
-    <t>{2039., 0.8723057168218248}</t>
-  </si>
-  <si>
-    <t>{2040., 0.8844763020918343}</t>
+    <t>{{2000., 0.1364542183755179}, {2001., 0.13725793333739394}, {2002., 0.13881405748744233}, {2003., 0.1398301835058312}, {2004., 0.13992179436280328}, {2005., 0.14015977724950593}, {2006., 0.1424266447175382}, {2007., 0.14495837846665108}, {2008., 0.14565690273339238}, {2009., 0.14631210821253332}, {2010., 0.14585157865811743}, {2011., 0.14433564313225525}, {2012., 0.14396340749442374}, {2013., 0.1435750453832827}, {2014., 0.14384671972133006}, {2015., 0.14552069202158424}, {2016., 0.14673094639380482}, {2017., 0.14726019123829753}, {2018., 0.14779101438097822}, {2019., 0.14832341814285688}, {2020., 0.14885740483054313}, {2021., 0.1493929767360981}, {2022., 0.14993013613688633}, {2023., 0.15046888529542674}, {2024., 0.15100922645924383}, {2025., 0.15155116186071846}, {2026., 0.15209469371693715}, {2027., 0.15263982422954275}, {2028., 0.15318655558458333}, {2029., 0.15373488995236076}, {2030., 0.15428482948728028}, {2031., 0.1548363763276979}, {2032., 0.15538953259576835}, {2033., 0.15594430039729296}, {2034., 0.15650068182156668}, {2035., 0.15705867894122436}, {2036., 0.15761829381208806}, {2037., 0.1581795284730127}, {2038., 0.15874238494573173}, {2039., 0.159306865234703}, {2040., 0.15987297132695386}}</t>
+  </si>
+  <si>
+    <t>{{2000., 0.16724419682361513}, {2001., 0.16838671129303187}, {2002., 0.17060038412928552}, {2003., 0.17204697047986364}, {2004., 0.17217743172666725}, {2005., 0.1725163701586668}, {2006., 0.17574710999837864}, {2007., 0.17935991040303878}, {2008., 0.18035751596497487}, {2009., 0.18129356087254556}, {2010., 0.18063560482658458}, {2011., 0.17847083260949723}, {2012., 0.1779395248207956}, {2013., 0.17738530582779666}, {2014., 0.1777729919640194}, {2015., 0.18016295846110633}, {2016., 0.18189207715624903}, {2017., 0.18264853087749675}, {2018., 0.18340742526943077}, {2019., 0.18416876234206575}, {2020., 0.1849325440552555}, {2021., 0.18569877231828924}, {2022., 0.18646744898948725}, {2023., 0.18723857587579698}, {2024., 0.1880121547323903}, {2025., 0.18878818726226027}, {2026., 0.18956667511581748}, {2027., 0.19034761989048885}, {2028., 0.1911310231303152}, {2029., 0.19191688632554904}, {2030., 0.1927052109122548}, {2031., 0.19349599827190736}, {2032., 0.19428924973099226}, {2033., 0.19508496656060692}, {2034., 0.19588314997606152}, {2035., 0.19668380113648093}, {2036., 0.1974869211444081}, {2037., 0.19829251104540735}, {2038., 0.19910057182766822}, {2039., 0.19991110442161192}, {2040., 0.2007241096994967}}</t>
+  </si>
+  <si>
+    <t>{{2000., 0.06702898459317119}, {2001., 0.08159013804955667}, {2002., 0.11755859082649789}, {2003., 0.1475554894611385}, {2004., 0.14670236848054247}, {2005., 0.1460933565324088}, {2006., 0.21452196411564234}, {2007., 0.3102340565207154}, {2008., 0.3241410707933386}, {2009., 0.3340736043529067}, {2010., 0.2957651119137917}, {2011., 0.22234698276801207}, {2012., 0.2037948866705266}, {2013., 0.19174650678944913}, {2014., 0.2001195217243932}, {2015., 0.2573354885083769}, {2016., 0.3043338767497815}, {2017., 0.3262266215474003}, {2018., 0.3489043858471003}, {2019., 0.3722875480003422}, {2020., 0.39628401229640914}, {2021., 0.4207903497397939}, {2022., 0.44569336403532717}, {2023., 0.4708720432577449}, {2024., 0.4961998324318884}, {2025., 0.521547140128614}, {2026., 0.5467839754634066}, {2027., 0.571782602365049}, {2028., 0.5964200967102301}, {2029., 0.6205806990385884}, {2030., 0.6441578702824843}, {2031., 0.667055978670317}, {2032., 0.6891915705291194}, {2033., 0.7104942037047086}, {2034., 0.7309068473898971}, {2035., 0.7503858743080427}, {2036., 0.7689006889899095}, {2037., 0.7864330484920606}, {2038., 0.8029761391457441}, {2039., 0.8185334751405966}, {2040., 0.833117682673893}}</t>
+  </si>
+  <si>
+    <t>{{2000., 0.0971772855549401}, {2001., 0.12183292828576378}, {2002., 0.18432549575222124}, {2003., 0.2366365973042159}, {2004., 0.23515722558956625}, {2005., 0.2341007408565032}, {2006., 0.35003044735066996}, {2007., 0.4966175610432762}, {2008., 0.5161114893350227}, {2009., 0.5297419050188904}, {2010., 0.47583076050528633}, {2011., 0.3627770965773526}, {2012., 0.3323571174013129}, {2013., 0.31224719819742536}, {2014., 0.3262508300695462}, {2015., 0.4181598649980998}, {2016., 0.48820310562731706}, {2017., 0.5189937077760254}, {2018., 0.5496407169548153}, {2019., 0.5799155911745406}, {2020., 0.6096008306476947}, {2021., 0.6384960184702329}, {2022., 0.6664228327308488}, {2023., 0.693228791899016}, {2024., 0.718789614948621}, {2025., 0.743010196820977}, {2026., 0.765824304138152}, {2027., 0.7871931754248351}, {2028., 0.8071032595964517}, {2029., 0.8255633462375067}, {2030., 0.8426013352309537}, {2031., 0.8582608679576073}, {2032., 0.872605596657985}, {2033., 0.8856929136243203}, {2034., 0.8975935442910723}, {2035., 0.908383349450883}, {2036., 0.918139992510448}, {2037., 0.9269411756122073}, {2038., 0.9348632307395459}, {2039., 0.9419800348813127}, {2040., 0.9483622113129739}}</t>
+  </si>
+  <si>
+    <t>{{2000., 0.0010538098021218374}, {2001., 0.0012446008523183656}, {2002., 0.0017135737739719587}, {2003., 0.0021078606199152307}, {2004., 0.0023170240471729565}, {2005., 0.002868331963012829}, {2006., 0.005950763267772896}, {2007., 0.013766704389919397}, {2008., 0.02065398301416194}, {2009., 0.031201008926718527}, {2010., 0.033396468391812026}, {2011., 0.02541936055793641}, {2012., 0.024686563519844437}, {2013., 0.021714521861876807}, {2014., 0.02375488512184647}, {2015., 0.04097870081070929}, {2016., 0.060136760813538095}, {2017., 0.0708687548594069}, {2018., 0.08334613772467468}, {2019., 0.09778911959290042}, {2020., 0.11442249685722779}, {2021., 0.1334665797865945}, {2022., 0.15512507496293887}, {2023., 0.17956989907387272}, {2024., 0.2069233441229379}, {2025., 0.23723861905688173}, {2026., 0.2704805021323703}, {2027., 0.3065085240079705}, {2028., 0.34506556594665055}, {2029., 0.3857747691353227}, {2030., 0.42814702001985205}, {2031., 0.4715999533583726}, {2032., 0.5154875705920569}, {2033., 0.5591376040623186}, {2034., 0.601892191807504}, {2035., 0.6431467288585611}, {2036., 0.6823821479562066}, {2037., 0.7191872334719336}, {2038., 0.7532694769967263}, {2039., 0.7844549132679324}, {2040., 0.8126788804589606}}</t>
+  </si>
+  <si>
+    <t>{{2000., 0.0015395135304709076}, {2001., 0.0018858947548661663}, {2002., 0.0027850409416640943}, {2003., 0.0035845855426622055}, {2004., 0.00402250625987534}, {2005., 0.005216540918104136}, {2006., 0.012662057731646047}, {2007., 0.03477970004881396}, {2008., 0.056264691388675056}, {2009., 0.09086079234037313}, {2010., 0.09819651001071061}, {2011., 0.07172402863129393}, {2012., 0.06932435208342859}, {2013., 0.05967256492888333}, {2014., 0.06628404732740682}, {2015., 0.12366689455583384}, {2016., 0.18762915371207725}, {2017., 0.22250908590605822}, {2018., 0.26178365219674754}, {2019., 0.30526864591824715}, {2020., 0.352527533540964}, {2021., 0.4028601050952543}, {2022., 0.4553253180484114}, {2023., 0.5088013255534957}, {2024., 0.5620766743843504}, {2025., 0.6139578994776984}, {2026., 0.6633737783606525}, {2027., 0.7094575380187234}, {2028., 0.751594863694022}, {2029., 0.7894347995405786}, {2030., 0.8228689928200614}, {2031., 0.8519897397228017}, {2032., 0.8770383692139614}, {2033., 0.8983536221528492}, {2034., 0.9163264191246386}, {2035., 0.9313641189337413}, {2036., 0.9438648256996254}, {2037., 0.9542007274349061}, {2038., 0.9627087187542371}, {2039., 0.9696864167735408}, {2040., 0.9753918674936499}}</t>
+  </si>
+  <si>
+    <t>{{2014., 0.14384671972133006}, {2015., 0.1445795463808342}, {2016., 0.1445795463808342}, {2017., 0.1445795463808342}, {2018., 0.1440401326094711}, {2019., 0.14296632706954054}, {2020., 0.14189919957669597}, {2021., 0.14083872837367403}, {2022., 0.13978489146890596}, {2023., 0.13873766664191384}, {2024., 0.13821652675241128}, {2025., 0.13821652675241128}, {2026., 0.13821652675241128}, {2027., 0.13821652675241128}, {2028., 0.13821652675241128}, {2029., 0.13821652675241128}, {2030., 0.13821652675241128}, {2031., 0.13821652675241128}, {2032., 0.13821652675241128}, {2033., 0.13821652675241128}, {2034., 0.13821652675241128}, {2035., 0.13821652675241128}, {2036., 0.13821652675241128}, {2037., 0.13821652675241128}, {2038., 0.13821652675241128}, {2039., 0.13821652675241128}, {2040., 0.13821652675241128}}</t>
+  </si>
+  <si>
+    <t>{{2014., 0.1777729919640194}, {2015., 0.17881901993131918}, {2016., 0.17881901993131918}, {2017., 0.17881901993131918}, {2018., 0.1780490296854595}, {2019., 0.17651684590758204}, {2020., 0.17499504006346087}, {2021., 0.1734835901869267}, {2022., 0.17198247347472198}, {2023., 0.17049166630181797}, {2024., 0.1697501211888432}, {2025., 0.1697501211888432}, {2026., 0.1697501211888432}, {2027., 0.1697501211888432}, {2028., 0.1697501211888432}, {2029., 0.1697501211888432}, {2030., 0.1697501211888432}, {2031., 0.1697501211888432}, {2032., 0.1697501211888432}, {2033., 0.1697501211888432}, {2034., 0.1697501211888432}, {2035., 0.1697501211888432}, {2036., 0.1697501211888432}, {2037., 0.1697501211888432}, {2038., 0.1697501211888432}, {2039., 0.1697501211888432}, {2040., 0.1697501211888432}}</t>
+  </si>
+  <si>
+    <t>{{2014., 0.2001195217243932}, {2015., 0.22398673507917602}, {2016., 0.22398673507917602}, {2017., 0.22398673507917602}, {2018., 0.20623739674361471}, {2019., 0.17391888334449887}, {2020., 0.14573501463889665}, {2021., 0.12144693547629715}, {2022., 0.10072939378140046}, {2023., 0.08314745687447864}, {2024., 0.07540095066442434}, {2025., 0.07540095066442434}, {2026., 0.07540095066442434}, {2027., 0.07540095066442434}, {2028., 0.07540095066442434}, {2029., 0.07540095066442434}, {2030., 0.07540095066442434}, {2031., 0.07540095066442434}, {2032., 0.07540095066442434}, {2033., 0.07540095066442434}, {2034., 0.07540095066442434}, {2035., 0.07540095066442434}, {2036., 0.07540095066442434}, {2037., 0.07540095066442434}, {2038., 0.07540095066442434}, {2039., 0.07540095066442434}, {2040., 0.07540095066442434}}</t>
+  </si>
+  <si>
+    <t>{{2014., 0.3262508300695462}, {2015., 0.36543214210506586}, {2016., 0.36543214210506586}, {2017., 0.36543214210506586}, {2018., 0.33640097102084915}, {2019., 0.282033795531936}, {2020., 0.2334789474633774}, {2021., 0.19112779432679008}, {2022., 0.15490630442147837}, {2023., 0.12449280358187911}, {2024., 0.11130106838383595}, {2025., 0.11130106838383595}, {2026., 0.11130106838383595}, {2027., 0.11130106838383595}, {2028., 0.11130106838383595}, {2029., 0.11130106838383595}, {2030., 0.11130106838383595}, {2031., 0.11130106838383595}, {2032., 0.11130106838383595}, {2033., 0.11130106838383595}, {2034., 0.11130106838383595}, {2035., 0.11130106838383595}, {2036., 0.11130106838383595}, {2037., 0.11130106838383595}, {2038., 0.11130106838383595}, {2039., 0.11130106838383595}, {2040., 0.11130106838383595}}</t>
+  </si>
+  <si>
+    <t>{{2014., 0.02375488512184647}, {2015., 0.03021422718008873}, {2016., 0.03021422718008873}, {2017., 0.03021422718008873}, {2018., 0.025318117955568646}, {2019., 0.017736271203969468}, {2020., 0.01239603308844038}, {2021., 0.008649535851367107}, {2022., 0.006028444030235533}, {2023., 0.00419826494787435}, {2024., 0.0035027240479532686}, {2025., 0.0035027240479532686}, {2026., 0.0035027240479532686}, {2027., 0.0035027240479532686}, {2028., 0.0035027240479532686}, {2029., 0.0035027240479532686}, {2030., 0.0035027240479532686}, {2031., 0.0035027240479532686}, {2032., 0.0035027240479532686}, {2033., 0.0035027240479532686}, {2034., 0.0035027240479532686}, {2035., 0.0035027240479532686}, {2036., 0.0035027240479532686}, {2037., 0.0035027240479532686}, {2038., 0.0035027240479532686}, {2039., 0.0035027240479532686}, {2040., 0.0035027240479532686}}</t>
+  </si>
+  <si>
+    <t>{{2014., 0.06628404732740682}, {2015., 0.08757366274061319}, {2016., 0.08757366274061319}, {2017., 0.08757366274061319}, {2018., 0.07139207390279004}, {2019., 0.04700995098967218}, {2020., 0.03067979947744156}, {2021., 0.019903879963486207}, {2022., 0.012862650780396103}, {2023., 0.008291266094519646}, {2024., 0.00665242309105038}, {2025., 0.00665242309105038}, {2026., 0.00665242309105038}, {2027., 0.00665242309105038}, {2028., 0.00665242309105038}, {2029., 0.00665242309105038}, {2030., 0.00665242309105038}, {2031., 0.00665242309105038}, {2032., 0.00665242309105038}, {2033., 0.00665242309105038}, {2034., 0.00665242309105038}, {2035., 0.00665242309105038}, {2036., 0.00665242309105038}, {2037., 0.00665242309105038}, {2038., 0.00665242309105038}, {2039., 0.00665242309105038}, {2040., 0.00665242309105038}}</t>
+  </si>
+  <si>
+    <t>{2000., 0.15185446956228266}</t>
+  </si>
+  <si>
+    <t>{2001., 0.15282140747444004}</t>
+  </si>
+  <si>
+    <t>{2002., 0.15469427595053686}</t>
+  </si>
+  <si>
+    <t>{2003., 0.15591772936391204}</t>
+  </si>
+  <si>
+    <t>{2004., 0.15602805117831006}</t>
+  </si>
+  <si>
+    <t>{2005., 0.15631465510575285}</t>
+  </si>
+  <si>
+    <t>{2006., 0.15904568244610703}</t>
+  </si>
+  <si>
+    <t>{2007., 0.16209792314886698}</t>
+  </si>
+  <si>
+    <t>{2008., 0.16294043455716392}</t>
+  </si>
+  <si>
+    <t>{2009., 0.16373084072226238}</t>
+  </si>
+  <si>
+    <t>{2010., 0.1631752672395553}</t>
+  </si>
+  <si>
+    <t>{2011., 0.1613469578143731}</t>
+  </si>
+  <si>
+    <t>{2012., 0.16089813510353246}</t>
+  </si>
+  <si>
+    <t>{2013., 0.16042991752663602}</t>
+  </si>
+  <si>
+    <t>{2014., 0.16075744851017335}</t>
+  </si>
+  <si>
+    <t>{2015., 0.16277613424720125}</t>
+  </si>
+  <si>
+    <t>{2016., 0.16423617693091144}</t>
+  </si>
+  <si>
+    <t>{2017., 0.16487479942013095}</t>
+  </si>
+  <si>
+    <t>{2018., 0.1655154133703853}</t>
+  </si>
+  <si>
+    <t>{2019., 0.16615802116716322}</t>
+  </si>
+  <si>
+    <t>{2020., 0.16680262516766695}</t>
+  </si>
+  <si>
+    <t>{2021., 0.16744922770055698}</t>
+  </si>
+  <si>
+    <t>{2022., 0.16809783106569617}</t>
+  </si>
+  <si>
+    <t>{2023., 0.16874843753389301}</t>
+  </si>
+  <si>
+    <t>{2024., 0.16940104934664588}</t>
+  </si>
+  <si>
+    <t>{2025., 0.17005566871588604}</t>
+  </si>
+  <si>
+    <t>{2026., 0.17071229782371974}</t>
+  </si>
+  <si>
+    <t>{2027., 0.171370938822172}</t>
+  </si>
+  <si>
+    <t>{2028., 0.17203159383292796}</t>
+  </si>
+  <si>
+    <t>{2029., 0.17269426494707504}</t>
+  </si>
+  <si>
+    <t>{2030., 0.1733589542248451}</t>
+  </si>
+  <si>
+    <t>{2031., 0.17402566369535574}</t>
+  </si>
+  <si>
+    <t>{2032., 0.17469439535635137}</t>
+  </si>
+  <si>
+    <t>{2033., 0.17536515117394486}</t>
+  </si>
+  <si>
+    <t>{2034., 0.17603793308235827}</t>
+  </si>
+  <si>
+    <t>{2035., 0.1767127429836633}</t>
+  </si>
+  <si>
+    <t>{2036., 0.17738958274752267}</t>
+  </si>
+  <si>
+    <t>{2037., 0.1780684542109303}</t>
+  </si>
+  <si>
+    <t>{2038., 0.17874935917795132}</t>
+  </si>
+  <si>
+    <t>{2039., 0.17943229941946331}</t>
+  </si>
+  <si>
+    <t>{2040., 0.18011727667289598}</t>
+  </si>
+  <si>
+    <t>{2000., 0.08102208140261453}</t>
+  </si>
+  <si>
+    <t>{2001., 0.10008381452924794}</t>
+  </si>
+  <si>
+    <t>{2002., 0.14806531929396616}</t>
+  </si>
+  <si>
+    <t>{2003., 0.18837551143094192}</t>
+  </si>
+  <si>
+    <t>{2004., 0.1872299474552618}</t>
+  </si>
+  <si>
+    <t>{2005., 0.18641209632690217}</t>
+  </si>
+  <si>
+    <t>{2006., 0.2775089906781631}</t>
+  </si>
+  <si>
+    <t>{2007., 0.4000476156623206}</t>
+  </si>
+  <si>
+    <t>{2008., 0.41721929656347295}</t>
+  </si>
+  <si>
+    <t>{2009., 0.4293719464016674}</t>
+  </si>
+  <si>
+    <t>{2010., 0.3819937300839776}</t>
+  </si>
+  <si>
+    <t>{2011., 0.28777493687167716}</t>
+  </si>
+  <si>
+    <t>{2012., 0.26337457031754785}</t>
+  </si>
+  <si>
+    <t>{2013., 0.24742177199201323}</t>
+  </si>
+  <si>
+    <t>{2014., 0.2585164519732612}</t>
+  </si>
+  <si>
+    <t>{2015., 0.3331617715471147}</t>
+  </si>
+  <si>
+    <t>{2016., 0.39270841172752385}</t>
+  </si>
+  <si>
+    <t>{2017., 0.41977879621463055}</t>
+  </si>
+  <si>
+    <t>{2018., 0.447340663287856}</t>
+  </si>
+  <si>
+    <t>{2019., 0.4752299887613429}</t>
+  </si>
+  <si>
+    <t>{2020., 0.5032746860068072}</t>
+  </si>
+  <si>
+    <t>{2021., 0.5312987930402269}</t>
+  </si>
+  <si>
+    <t>{2022., 0.5591268632942925}</t>
+  </si>
+  <si>
+    <t>{2023., 0.5865883291702912}</t>
+  </si>
+  <si>
+    <t>{2024., 0.613521609906763}</t>
+  </si>
+  <si>
+    <t>{2025., 0.6397777580337878}</t>
+  </si>
+  <si>
+    <t>{2026., 0.6652234786562262}</t>
+  </si>
+  <si>
+    <t>{2027., 0.6897434078360711}</t>
+  </si>
+  <si>
+    <t>{2028., 0.7132415940236417}</t>
+  </si>
+  <si>
+    <t>{2029., 0.7356421832903232}</t>
+  </si>
+  <si>
+    <t>{2030., 0.7568893593698017}</t>
+  </si>
+  <si>
+    <t>{2031., 0.7769466291159662}</t>
+  </si>
+  <si>
+    <t>{2032., 0.7957955707322867}</t>
+  </si>
+  <si>
+    <t>{2033., 0.8134341756840354}</t>
+  </si>
+  <si>
+    <t>{2034., 0.8298749167775045}</t>
+  </si>
+  <si>
+    <t>{2035., 0.8451426667367429}</t>
+  </si>
+  <si>
+    <t>{2036., 0.8592725765054335}</t>
+  </si>
+  <si>
+    <t>{2037., 0.8723080032776311}</t>
+  </si>
+  <si>
+    <t>{2038., 0.8842985574460827}</t>
+  </si>
+  <si>
+    <t>{2039., 0.8952983172728464}</t>
+  </si>
+  <si>
+    <t>{2040., 0.9053642415688803}</t>
   </si>
   <si>
     <t>{2000., 0.0012792454934472525}</t>
@@ -550,160 +556,160 @@
     <t>{2040., 0.929820696885032}</t>
   </si>
   <si>
-    <t>{2015., 0.14507783239309213}</t>
-  </si>
-  <si>
-    <t>{2016., 0.14507783239309213}</t>
-  </si>
-  <si>
-    <t>{2017., 0.14507783239309213}</t>
-  </si>
-  <si>
-    <t>{2018., 0.14003148717886235}</t>
-  </si>
-  <si>
-    <t>{2019., 0.1303797483008204}</t>
-  </si>
-  <si>
-    <t>{2020., 0.12129942595417412}</t>
-  </si>
-  <si>
-    <t>{2021., 0.11276949672837984}</t>
-  </si>
-  <si>
-    <t>{2022., 0.10476788426579998}</t>
-  </si>
-  <si>
-    <t>{2023., 0.09727178362650701}</t>
-  </si>
-  <si>
-    <t>{2024., 0.09370604660347798}</t>
-  </si>
-  <si>
-    <t>{2025., 0.09370604660347798}</t>
-  </si>
-  <si>
-    <t>{2026., 0.09370604660347798}</t>
-  </si>
-  <si>
-    <t>{2027., 0.09370604660347798}</t>
-  </si>
-  <si>
-    <t>{2028., 0.09370604660347798}</t>
-  </si>
-  <si>
-    <t>{2029., 0.09370604660347798}</t>
-  </si>
-  <si>
-    <t>{2030., 0.09370604660347798}</t>
-  </si>
-  <si>
-    <t>{2031., 0.09370604660347798}</t>
-  </si>
-  <si>
-    <t>{2032., 0.09370604660347798}</t>
-  </si>
-  <si>
-    <t>{2033., 0.09370604660347798}</t>
-  </si>
-  <si>
-    <t>{2034., 0.09370604660347798}</t>
-  </si>
-  <si>
-    <t>{2035., 0.09370604660347798}</t>
-  </si>
-  <si>
-    <t>{2036., 0.09370604660347798}</t>
-  </si>
-  <si>
-    <t>{2037., 0.09370604660347798}</t>
-  </si>
-  <si>
-    <t>{2038., 0.09370604660347798}</t>
-  </si>
-  <si>
-    <t>{2039., 0.09370604660347798}</t>
-  </si>
-  <si>
-    <t>{2040., 0.09370604660347798}</t>
-  </si>
-  <si>
-    <t>{2015., 0.2372225419617461}</t>
-  </si>
-  <si>
-    <t>{2016., 0.2372225419617461}</t>
-  </si>
-  <si>
-    <t>{2017., 0.2372225419617461}</t>
-  </si>
-  <si>
-    <t>{2018., 0.21653593062295043}</t>
-  </si>
-  <si>
-    <t>{2019., 0.17917148226705948}</t>
-  </si>
-  <si>
-    <t>{2020., 0.1470443851263386}</t>
-  </si>
-  <si>
-    <t>{2021., 0.11983694073366}</t>
-  </si>
-  <si>
-    <t>{2022., 0.0970906260622831}</t>
-  </si>
-  <si>
-    <t>{2023., 0.07827782314775712}</t>
-  </si>
-  <si>
-    <t>{2024., 0.07017654482727179}</t>
-  </si>
-  <si>
-    <t>{2025., 0.07017654482727179}</t>
-  </si>
-  <si>
-    <t>{2026., 0.07017654482727179}</t>
-  </si>
-  <si>
-    <t>{2027., 0.07017654482727179}</t>
-  </si>
-  <si>
-    <t>{2028., 0.07017654482727179}</t>
-  </si>
-  <si>
-    <t>{2029., 0.07017654482727179}</t>
-  </si>
-  <si>
-    <t>{2030., 0.07017654482727179}</t>
-  </si>
-  <si>
-    <t>{2031., 0.07017654482727179}</t>
-  </si>
-  <si>
-    <t>{2032., 0.07017654482727179}</t>
-  </si>
-  <si>
-    <t>{2033., 0.07017654482727179}</t>
-  </si>
-  <si>
-    <t>{2034., 0.07017654482727179}</t>
-  </si>
-  <si>
-    <t>{2035., 0.07017654482727179}</t>
-  </si>
-  <si>
-    <t>{2036., 0.07017654482727179}</t>
-  </si>
-  <si>
-    <t>{2037., 0.07017654482727179}</t>
-  </si>
-  <si>
-    <t>{2038., 0.07017654482727179}</t>
-  </si>
-  <si>
-    <t>{2039., 0.07017654482727179}</t>
-  </si>
-  <si>
-    <t>{2040., 0.07017654482727179}</t>
+    <t>{2015., 0.16164106892075322}</t>
+  </si>
+  <si>
+    <t>{2016., 0.16164106892075322}</t>
+  </si>
+  <si>
+    <t>{2017., 0.16164106892075322}</t>
+  </si>
+  <si>
+    <t>{2018., 0.160990642533059}</t>
+  </si>
+  <si>
+    <t>{2019., 0.15969613693332022}</t>
+  </si>
+  <si>
+    <t>{2020., 0.15841007501648857}</t>
+  </si>
+  <si>
+    <t>{2021., 0.15713243330496823}</t>
+  </si>
+  <si>
+    <t>{2022., 0.15586318785424483}</t>
+  </si>
+  <si>
+    <t>{2023., 0.15460231426235846}</t>
+  </si>
+  <si>
+    <t>{2024., 0.15397500916510512}</t>
+  </si>
+  <si>
+    <t>{2025., 0.15397500916510512}</t>
+  </si>
+  <si>
+    <t>{2026., 0.15397500916510512}</t>
+  </si>
+  <si>
+    <t>{2027., 0.15397500916510512}</t>
+  </si>
+  <si>
+    <t>{2028., 0.15397500916510512}</t>
+  </si>
+  <si>
+    <t>{2029., 0.15397500916510512}</t>
+  </si>
+  <si>
+    <t>{2030., 0.15397500916510512}</t>
+  </si>
+  <si>
+    <t>{2031., 0.15397500916510512}</t>
+  </si>
+  <si>
+    <t>{2032., 0.15397500916510512}</t>
+  </si>
+  <si>
+    <t>{2033., 0.15397500916510512}</t>
+  </si>
+  <si>
+    <t>{2034., 0.15397500916510512}</t>
+  </si>
+  <si>
+    <t>{2035., 0.15397500916510512}</t>
+  </si>
+  <si>
+    <t>{2036., 0.15397500916510512}</t>
+  </si>
+  <si>
+    <t>{2037., 0.15397500916510512}</t>
+  </si>
+  <si>
+    <t>{2038., 0.15397500916510512}</t>
+  </si>
+  <si>
+    <t>{2039., 0.15397500916510512}</t>
+  </si>
+  <si>
+    <t>{2040., 0.15397500916510512}</t>
+  </si>
+  <si>
+    <t>{2015., 0.2899211829702768}</t>
+  </si>
+  <si>
+    <t>{2016., 0.2899211829702768}</t>
+  </si>
+  <si>
+    <t>{2017., 0.2899211829702768}</t>
+  </si>
+  <si>
+    <t>{2018., 0.26659887554318684}</t>
+  </si>
+  <si>
+    <t>{2019., 0.22368682299177306}</t>
+  </si>
+  <si>
+    <t>{2020., 0.18593084558762693}</t>
+  </si>
+  <si>
+    <t>{2021., 0.15328931604599985}</t>
+  </si>
+  <si>
+    <t>{2022., 0.1254948540061205}</t>
+  </si>
+  <si>
+    <t>{2023., 0.10213219148902465}</t>
+  </si>
+  <si>
+    <t>{2024., 0.09195992656767865}</t>
+  </si>
+  <si>
+    <t>{2025., 0.09195992656767865}</t>
+  </si>
+  <si>
+    <t>{2026., 0.09195992656767865}</t>
+  </si>
+  <si>
+    <t>{2027., 0.09195992656767865}</t>
+  </si>
+  <si>
+    <t>{2028., 0.09195992656767865}</t>
+  </si>
+  <si>
+    <t>{2029., 0.09195992656767865}</t>
+  </si>
+  <si>
+    <t>{2030., 0.09195992656767865}</t>
+  </si>
+  <si>
+    <t>{2031., 0.09195992656767865}</t>
+  </si>
+  <si>
+    <t>{2032., 0.09195992656767865}</t>
+  </si>
+  <si>
+    <t>{2033., 0.09195992656767865}</t>
+  </si>
+  <si>
+    <t>{2034., 0.09195992656767865}</t>
+  </si>
+  <si>
+    <t>{2035., 0.09195992656767865}</t>
+  </si>
+  <si>
+    <t>{2036., 0.09195992656767865}</t>
+  </si>
+  <si>
+    <t>{2037., 0.09195992656767865}</t>
+  </si>
+  <si>
+    <t>{2038., 0.09195992656767865}</t>
+  </si>
+  <si>
+    <t>{2039., 0.09195992656767865}</t>
+  </si>
+  <si>
+    <t>{2040., 0.09195992656767865}</t>
   </si>
   <si>
     <t>{2015., 0.05218100454750249}</t>
@@ -784,82 +790,82 @@
     <t>{2040., 0.004853341323010666}</t>
   </si>
   <si>
-    <t>{{2000., 0.05028514570122228}, {2001., 0.06155753198683107}, {2002., 0.09009322763372081}, {2003., 0.1144861306936306}, {2004., 0.11378577158147919}, {2005., 0.11328604536871704}, {2006., 0.17063925512371367}, {2007., 0.2549520748664947}, {2008., 0.2676013273450779}, {2009., 0.27669608993158595}, {2010., 0.241896612092387}, {2011., 0.17735064697379455}, {2012., 0.16148944510363147}, {2013., 0.151282621153896}, {2014., 0.15836798470721727}, {2015., 0.20774051092246187}, {2016., 0.2496153738061236}, {2017., 0.26950678467965633}, {2018., 0.29036993006001766}, {2019., 0.3011518360560231}, {2020., 0.30449818482360386}, {2021., 0.3078653368678056}, {2022., 0.3078653368678056}, {2023., 0.3078653368678056}, {2024., 0.3078653368678056}, {2025., 0.3078653368678056}, {2026., 0.3078653368678056}, {2027., 0.3078653368678056}, {2028., 0.3078653368678056}, {2029., 0.3078653368678056}, {2030., 0.3078653368678056}, {2031., 0.3078653368678056}, {2032., 0.3078653368678056}, {2033., 0.3078653368678056}, {2034., 0.3078653368678056}, {2035., 0.3078653368678056}, {2036., 0.3078653368678056}, {2037., 0.3078653368678056}, {2038., 0.3078653368678056}, {2039., 0.3078653368678056}, {2040., 0.3078653368678056}}</t>
-  </si>
-  <si>
-    <t>{{2000., 0.0746980545419653}, {2001., 0.09460577102028109}, {2002., 0.14645460275982497}, {2003., 0.19133872222722204}, {2004., 0.19005106328753754}, {2005., 0.18913214033274903}, {2006., 0.29282643722604296}, {2007., 0.43317378802430134}, {2008., 0.4526519990589529}, {2009., 0.46638759770154636}, {2010., 0.41261769909246504}, {2011., 0.30460977079741847}, {2012., 0.2766187465512695}, {2013., 0.25835925360676204}, {2014., 0.2710538203639345}, {2015., 0.3567285105444272}, {2016., 0.42482621849915236}, {2017., 0.45554846513305525}, {2018., 0.4866127998705204}, {2019., 0.5021989875080268}, {2020., 0.5069716374765589}, {2021., 0.5117455824322855}, {2022., 0.5117455824322855}, {2023., 0.5117455824322855}, {2024., 0.5117455824322855}, {2025., 0.5117455824322855}, {2026., 0.5117455824322855}, {2027., 0.5117455824322855}, {2028., 0.5117455824322855}, {2029., 0.5117455824322855}, {2030., 0.5117455824322855}, {2031., 0.5117455824322855}, {2032., 0.5117455824322855}, {2033., 0.5117455824322855}, {2034., 0.5117455824322855}, {2035., 0.5117455824322855}, {2036., 0.5117455824322855}, {2037., 0.5117455824322855}, {2038., 0.5117455824322855}, {2039., 0.5117455824322855}, {2040., 0.5117455824322855}}</t>
-  </si>
-  <si>
-    <t>{{2000., 0.0010583847976785457}, {2001., 0.0012519192041356348}, {2002., 0.0017287249744525758}, {2003., 0.0021305475968390088}, {2004., 0.0023439973295611705}, {2005., 0.002907409967000532}, {2006., 0.006072165261578418}, {2007., 0.014153645843109085}, {2008., 0.021309421005828163}, {2009., 0.032301755972347614}, {2010., 0.03459350248920925}, {2011., 0.02627196755145181}, {2012., 0.025508368082390615}, {2013., 0.022413161550785737}, {2014., 0.02453776635235419}, {2015., 0.04251512781819999}, {2016., 0.06256242065354511}, {2017., 0.07380383838381055}, {2018., 0.08687795465029702}, {2019., 0.10201301632683264}, {2020., 0.11943987738130579}, {2021., 0.13938168394028447}, {2022., 0.16204030126030022}, {2023., 0.18757956917943375}, {2024., 0.21610600019937468}, {2025., 0.23150194800371354}, {2026., 0.23732771738920053}, {2027., 0.2432536874292704}, {2028., 0.2432536874292704}, {2029., 0.2432536874292704}, {2030., 0.2432536874292704}, {2031., 0.2432536874292704}, {2032., 0.2432536874292704}, {2033., 0.2432536874292704}, {2034., 0.2432536874292704}, {2035., 0.2432536874292704}, {2036., 0.2432536874292704}, {2037., 0.2432536874292704}, {2038., 0.2432536874292704}, {2039., 0.2432536874292704}, {2040., 0.2432536874292704}}</t>
-  </si>
-  <si>
-    <t>{{2000., 0.001524456037491669}, {2001., 0.0018669449931142854}, {2002., 0.0027556333197386335}, {2003., 0.0035455593401978605}, {2004., 0.003978113254347905}, {2005., 0.005157232114011788}, {2006., 0.012504267592986113}, {2007., 0.0343097031873255}, {2008., 0.055485469801181596}, {2009., 0.08959113270099027}, {2010., 0.09682515247298448}, {2011., 0.07072378134999256}, {2012., 0.06835824916119214}, {2013., 0.05884442920639048}, {2014., 0.06536130056590012}, {2015., 0.1219505157560037}, {2016., 0.18511245165448928}, {2017., 0.21960149618514388}, {2018., 0.2584781051127203}, {2019., 0.30157749183504207}, {2020., 0.3484860159553244}, {2021., 0.3985275055923061}, {2022., 0.45078293557361643}, {2023., 0.5041470682235987}, {2024., 0.5574168835018359}, {2025., 0.5836398238327188}, {2026., 0.5931328688639353}, {2027., 0.602556863060936}, {2028., 0.602556863060936}, {2029., 0.602556863060936}, {2030., 0.602556863060936}, {2031., 0.602556863060936}, {2032., 0.602556863060936}, {2033., 0.602556863060936}, {2034., 0.602556863060936}, {2035., 0.602556863060936}, {2036., 0.602556863060936}, {2037., 0.602556863060936}, {2038., 0.602556863060936}, {2039., 0.602556863060936}, {2040., 0.602556863060936}}</t>
-  </si>
-  <si>
-    <t>{2019., 0.39750063824994225}</t>
-  </si>
-  <si>
-    <t>{2020., 0.40168836695502547}</t>
-  </si>
-  <si>
-    <t>{2021., 0.40589049245315867}</t>
-  </si>
-  <si>
-    <t>{2022., 0.40589049245315867}</t>
-  </si>
-  <si>
-    <t>{2023., 0.40589049245315867}</t>
-  </si>
-  <si>
-    <t>{2024., 0.40589049245315867}</t>
-  </si>
-  <si>
-    <t>{2025., 0.40589049245315867}</t>
-  </si>
-  <si>
-    <t>{2026., 0.40589049245315867}</t>
-  </si>
-  <si>
-    <t>{2027., 0.40589049245315867}</t>
-  </si>
-  <si>
-    <t>{2028., 0.40589049245315867}</t>
-  </si>
-  <si>
-    <t>{2029., 0.40589049245315867}</t>
-  </si>
-  <si>
-    <t>{2030., 0.40589049245315867}</t>
-  </si>
-  <si>
-    <t>{2031., 0.40589049245315867}</t>
-  </si>
-  <si>
-    <t>{2032., 0.40589049245315867}</t>
-  </si>
-  <si>
-    <t>{2033., 0.40589049245315867}</t>
-  </si>
-  <si>
-    <t>{2034., 0.40589049245315867}</t>
-  </si>
-  <si>
-    <t>{2035., 0.40589049245315867}</t>
-  </si>
-  <si>
-    <t>{2036., 0.40589049245315867}</t>
-  </si>
-  <si>
-    <t>{2037., 0.40589049245315867}</t>
-  </si>
-  <si>
-    <t>{2038., 0.40589049245315867}</t>
-  </si>
-  <si>
-    <t>{2039., 0.40589049245315867}</t>
-  </si>
-  <si>
-    <t>{2040., 0.40589049245315867}</t>
+    <t>{{2000., 0.06702898459317119}, {2001., 0.08159013804955667}, {2002., 0.11755859082649789}, {2003., 0.1475554894611385}, {2004., 0.14670236848054247}, {2005., 0.1460933565324088}, {2006., 0.21452196411564234}, {2007., 0.3102340565207154}, {2008., 0.3241410707933386}, {2009., 0.3340736043529067}, {2010., 0.2957651119137917}, {2011., 0.22234698276801207}, {2012., 0.2037948866705266}, {2013., 0.19174650678944913}, {2014., 0.2001195217243932}, {2015., 0.2573354885083769}, {2016., 0.3043338767497815}, {2017., 0.3262266215474003}, {2018., 0.3489043858471003}, {2019., 0.36051326704486764}, {2020., 0.36410122703639586}, {2021., 0.36770436325003153}, {2022., 0.36770436325003153}, {2023., 0.36770436325003153}, {2024., 0.36770436325003153}, {2025., 0.36770436325003153}, {2026., 0.36770436325003153}, {2027., 0.36770436325003153}, {2028., 0.36770436325003153}, {2029., 0.36770436325003153}, {2030., 0.36770436325003153}, {2031., 0.36770436325003153}, {2032., 0.36770436325003153}, {2033., 0.36770436325003153}, {2034., 0.36770436325003153}, {2035., 0.36770436325003153}, {2036., 0.36770436325003153}, {2037., 0.36770436325003153}, {2038., 0.36770436325003153}, {2039., 0.36770436325003153}, {2040., 0.36770436325003153}}</t>
+  </si>
+  <si>
+    <t>{{2000., 0.0971772855549401}, {2001., 0.12183292828576378}, {2002., 0.18432549575222124}, {2003., 0.2366365973042159}, {2004., 0.23515722558956625}, {2005., 0.2341007408565032}, {2006., 0.35003044735066996}, {2007., 0.4966175610432762}, {2008., 0.5161114893350227}, {2009., 0.5297419050188904}, {2010., 0.47583076050528633}, {2011., 0.3627770965773526}, {2012., 0.3323571174013129}, {2013., 0.31224719819742536}, {2014., 0.3262508300695462}, {2015., 0.4181598649980998}, {2016., 0.48820310562731706}, {2017., 0.5189937077760254}, {2018., 0.5496407169548153}, {2019., 0.5648385985473207}, {2020., 0.5694688975150902}, {2021., 0.5740870786249592}, {2022., 0.5740870786249592}, {2023., 0.5740870786249592}, {2024., 0.5740870786249592}, {2025., 0.5740870786249592}, {2026., 0.5740870786249592}, {2027., 0.5740870786249592}, {2028., 0.5740870786249592}, {2029., 0.5740870786249592}, {2030., 0.5740870786249592}, {2031., 0.5740870786249592}, {2032., 0.5740870786249592}, {2033., 0.5740870786249592}, {2034., 0.5740870786249592}, {2035., 0.5740870786249592}, {2036., 0.5740870786249592}, {2037., 0.5740870786249592}, {2038., 0.5740870786249592}, {2039., 0.5740870786249592}, {2040., 0.5740870786249592}}</t>
+  </si>
+  <si>
+    <t>{{2000., 0.0010538098021218374}, {2001., 0.0012446008523183656}, {2002., 0.0017135737739719587}, {2003., 0.0021078606199152307}, {2004., 0.0023170240471729565}, {2005., 0.002868331963012829}, {2006., 0.005950763267772896}, {2007., 0.013766704389919397}, {2008., 0.02065398301416194}, {2009., 0.031201008926718527}, {2010., 0.033396468391812026}, {2011., 0.02541936055793641}, {2012., 0.024686563519844437}, {2013., 0.021714521861876807}, {2014., 0.02375488512184647}, {2015., 0.04097870081070929}, {2016., 0.060136760813538095}, {2017., 0.0708687548594069}, {2018., 0.08334613772467468}, {2019., 0.09778911959290042}, {2020., 0.11442249685722779}, {2021., 0.1334665797865945}, {2022., 0.15512507496293887}, {2023., 0.17956989907387272}, {2024., 0.2069233441229379}, {2025., 0.22171066545686294}, {2026., 0.22731091893330793}, {2027., 0.2330102799094727}, {2028., 0.2330102799094727}, {2029., 0.2330102799094727}, {2030., 0.2330102799094727}, {2031., 0.2330102799094727}, {2032., 0.2330102799094727}, {2033., 0.2330102799094727}, {2034., 0.2330102799094727}, {2035., 0.2330102799094727}, {2036., 0.2330102799094727}, {2037., 0.2330102799094727}, {2038., 0.2330102799094727}, {2039., 0.2330102799094727}, {2040., 0.2330102799094727}}</t>
+  </si>
+  <si>
+    <t>{{2000., 0.0015395135304709076}, {2001., 0.0018858947548661663}, {2002., 0.0027850409416640943}, {2003., 0.0035845855426622055}, {2004., 0.00402250625987534}, {2005., 0.005216540918104136}, {2006., 0.012662057731646047}, {2007., 0.03477970004881396}, {2008., 0.056264691388675056}, {2009., 0.09086079234037313}, {2010., 0.09819651001071061}, {2011., 0.07172402863129393}, {2012., 0.06932435208342859}, {2013., 0.05967256492888333}, {2014., 0.06628404732740682}, {2015., 0.12366689455583384}, {2016., 0.18762915371207725}, {2017., 0.22250908590605822}, {2018., 0.26178365219674754}, {2019., 0.30526864591824715}, {2020., 0.352527533540964}, {2021., 0.4028601050952543}, {2022., 0.4553253180484114}, {2023., 0.5088013255534957}, {2024., 0.5620766743843504}, {2025., 0.5882624788644798}, {2026., 0.5977354961673182}, {2027., 0.6071361188140392}, {2028., 0.6071361188140392}, {2029., 0.6071361188140392}, {2030., 0.6071361188140392}, {2031., 0.6071361188140392}, {2032., 0.6071361188140392}, {2033., 0.6071361188140392}, {2034., 0.6071361188140392}, {2035., 0.6071361188140392}, {2036., 0.6071361188140392}, {2037., 0.6071361188140392}, {2038., 0.6071361188140392}, {2039., 0.6071361188140392}, {2040., 0.6071361188140392}}</t>
+  </si>
+  <si>
+    <t>{2019., 0.4612550076988159}</t>
+  </si>
+  <si>
+    <t>{2020., 0.4655283579664281}</t>
+  </si>
+  <si>
+    <t>{2021., 0.4698067743216426}</t>
+  </si>
+  <si>
+    <t>{2022., 0.4698067743216426}</t>
+  </si>
+  <si>
+    <t>{2023., 0.4698067743216426}</t>
+  </si>
+  <si>
+    <t>{2024., 0.4698067743216426}</t>
+  </si>
+  <si>
+    <t>{2025., 0.4698067743216426}</t>
+  </si>
+  <si>
+    <t>{2026., 0.4698067743216426}</t>
+  </si>
+  <si>
+    <t>{2027., 0.4698067743216426}</t>
+  </si>
+  <si>
+    <t>{2028., 0.4698067743216426}</t>
+  </si>
+  <si>
+    <t>{2029., 0.4698067743216426}</t>
+  </si>
+  <si>
+    <t>{2030., 0.4698067743216426}</t>
+  </si>
+  <si>
+    <t>{2031., 0.4698067743216426}</t>
+  </si>
+  <si>
+    <t>{2032., 0.4698067743216426}</t>
+  </si>
+  <si>
+    <t>{2033., 0.4698067743216426}</t>
+  </si>
+  <si>
+    <t>{2034., 0.4698067743216426}</t>
+  </si>
+  <si>
+    <t>{2035., 0.4698067743216426}</t>
+  </si>
+  <si>
+    <t>{2036., 0.4698067743216426}</t>
+  </si>
+  <si>
+    <t>{2037., 0.4698067743216426}</t>
+  </si>
+  <si>
+    <t>{2038., 0.4698067743216426}</t>
+  </si>
+  <si>
+    <t>{2039., 0.4698067743216426}</t>
+  </si>
+  <si>
+    <t>{2040., 0.4698067743216426}</t>
   </si>
   <si>
     <t>{2025., 0.39147245222815646}</t>
@@ -1007,96 +1013,96 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1114,26 +1120,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1151,26 +1157,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1188,377 +1194,377 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="R1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AD1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AF1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AH1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AJ1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AK1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AL1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AM1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AN1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AO1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="R2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="S2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="T2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="U2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="V2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="W2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="X2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Y2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Z2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AA2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AB2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AC2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AD2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AE2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AF2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AG2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AH2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AI2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AJ2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AK2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AL2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AM2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AN2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AO2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="S3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="T3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="U3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="V3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="W3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="X3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Y3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Z3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AA3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AB3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AC3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AD3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AE3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AF3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AG3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AH3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AI3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AJ3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AK3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AL3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AM3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AN3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AO3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -1576,251 +1582,251 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="J1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="T1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="U1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="V1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="W1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="X1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Y1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Z1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AA1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="N2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="R2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="S2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="T2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="U2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="V2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="W2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="X2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Y2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Z2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AA2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="O3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="R3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="S3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="T3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="U3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="V3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="W3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="X3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Y3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Z3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AA3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -1838,26 +1844,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -1875,377 +1881,377 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="R1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AD1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AF1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AH1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AJ1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AK1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AL1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AM1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AN1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AO1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="R2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="S2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="T2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="U2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="V2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="W2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="X2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Y2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Z2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AA2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AB2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AC2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AD2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AE2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AF2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AG2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AH2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AI2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AJ2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AK2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AL2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AM2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AN2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AO2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="S3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="T3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="U3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="V3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="W3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="X3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Y3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Z3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AA3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AB3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AC3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AD3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AE3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AF3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AG3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AH3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AI3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AJ3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AK3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AL3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AM3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AN3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AO3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -2266,15 +2272,15 @@
         <v>2040.0</v>
       </c>
       <c r="B1" t="n">
-        <v>0.34234887217177035</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2009.0</v>
+        <v>2010.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.36655236293420845</v>
+        <v>0.3819937300839776</v>
       </c>
     </row>
     <row r="3">

--- a/Model 1_29/sepsis output.xlsx
+++ b/Model 1_29/sepsis output.xlsx
@@ -151,40 +151,40 @@
     <t>{2014., 0.06574042950513538}</t>
   </si>
   <si>
-    <t>{{2000., 0.1364542183755179}, {2001., 0.13725793333739394}, {2002., 0.13881405748744233}, {2003., 0.1398301835058312}, {2004., 0.13992179436280328}, {2005., 0.14015977724950593}, {2006., 0.1424266447175382}, {2007., 0.14495837846665108}, {2008., 0.14565690273339238}, {2009., 0.14631210821253332}, {2010., 0.14585157865811743}, {2011., 0.14433564313225525}, {2012., 0.14396340749442374}, {2013., 0.1435750453832827}, {2014., 0.14384671972133006}, {2015., 0.14552069202158424}, {2016., 0.14673094639380482}, {2017., 0.14726019123829753}, {2018., 0.14779101438097822}, {2019., 0.14832341814285688}, {2020., 0.14885740483054313}, {2021., 0.1493929767360981}, {2022., 0.14993013613688633}, {2023., 0.15046888529542674}, {2024., 0.15100922645924383}, {2025., 0.15155116186071846}, {2026., 0.15209469371693715}, {2027., 0.15263982422954275}, {2028., 0.15318655558458333}, {2029., 0.15373488995236076}, {2030., 0.15428482948728028}, {2031., 0.1548363763276979}, {2032., 0.15538953259576835}, {2033., 0.15594430039729296}, {2034., 0.15650068182156668}, {2035., 0.15705867894122436}, {2036., 0.15761829381208806}, {2037., 0.1581795284730127}, {2038., 0.15874238494573173}, {2039., 0.159306865234703}, {2040., 0.15987297132695386}}</t>
-  </si>
-  <si>
-    <t>{{2000., 0.16724419682361513}, {2001., 0.16838671129303187}, {2002., 0.17060038412928552}, {2003., 0.17204697047986364}, {2004., 0.17217743172666725}, {2005., 0.1725163701586668}, {2006., 0.17574710999837864}, {2007., 0.17935991040303878}, {2008., 0.18035751596497487}, {2009., 0.18129356087254556}, {2010., 0.18063560482658458}, {2011., 0.17847083260949723}, {2012., 0.1779395248207956}, {2013., 0.17738530582779666}, {2014., 0.1777729919640194}, {2015., 0.18016295846110633}, {2016., 0.18189207715624903}, {2017., 0.18264853087749675}, {2018., 0.18340742526943077}, {2019., 0.18416876234206575}, {2020., 0.1849325440552555}, {2021., 0.18569877231828924}, {2022., 0.18646744898948725}, {2023., 0.18723857587579698}, {2024., 0.1880121547323903}, {2025., 0.18878818726226027}, {2026., 0.18956667511581748}, {2027., 0.19034761989048885}, {2028., 0.1911310231303152}, {2029., 0.19191688632554904}, {2030., 0.1927052109122548}, {2031., 0.19349599827190736}, {2032., 0.19428924973099226}, {2033., 0.19508496656060692}, {2034., 0.19588314997606152}, {2035., 0.19668380113648093}, {2036., 0.1974869211444081}, {2037., 0.19829251104540735}, {2038., 0.19910057182766822}, {2039., 0.19991110442161192}, {2040., 0.2007241096994967}}</t>
-  </si>
-  <si>
-    <t>{{2000., 0.06702898459317119}, {2001., 0.08159013804955667}, {2002., 0.11755859082649789}, {2003., 0.1475554894611385}, {2004., 0.14670236848054247}, {2005., 0.1460933565324088}, {2006., 0.21452196411564234}, {2007., 0.3102340565207154}, {2008., 0.3241410707933386}, {2009., 0.3340736043529067}, {2010., 0.2957651119137917}, {2011., 0.22234698276801207}, {2012., 0.2037948866705266}, {2013., 0.19174650678944913}, {2014., 0.2001195217243932}, {2015., 0.2573354885083769}, {2016., 0.3043338767497815}, {2017., 0.3262266215474003}, {2018., 0.3489043858471003}, {2019., 0.3722875480003422}, {2020., 0.39628401229640914}, {2021., 0.4207903497397939}, {2022., 0.44569336403532717}, {2023., 0.4708720432577449}, {2024., 0.4961998324318884}, {2025., 0.521547140128614}, {2026., 0.5467839754634066}, {2027., 0.571782602365049}, {2028., 0.5964200967102301}, {2029., 0.6205806990385884}, {2030., 0.6441578702824843}, {2031., 0.667055978670317}, {2032., 0.6891915705291194}, {2033., 0.7104942037047086}, {2034., 0.7309068473898971}, {2035., 0.7503858743080427}, {2036., 0.7689006889899095}, {2037., 0.7864330484920606}, {2038., 0.8029761391457441}, {2039., 0.8185334751405966}, {2040., 0.833117682673893}}</t>
-  </si>
-  <si>
-    <t>{{2000., 0.0971772855549401}, {2001., 0.12183292828576378}, {2002., 0.18432549575222124}, {2003., 0.2366365973042159}, {2004., 0.23515722558956625}, {2005., 0.2341007408565032}, {2006., 0.35003044735066996}, {2007., 0.4966175610432762}, {2008., 0.5161114893350227}, {2009., 0.5297419050188904}, {2010., 0.47583076050528633}, {2011., 0.3627770965773526}, {2012., 0.3323571174013129}, {2013., 0.31224719819742536}, {2014., 0.3262508300695462}, {2015., 0.4181598649980998}, {2016., 0.48820310562731706}, {2017., 0.5189937077760254}, {2018., 0.5496407169548153}, {2019., 0.5799155911745406}, {2020., 0.6096008306476947}, {2021., 0.6384960184702329}, {2022., 0.6664228327308488}, {2023., 0.693228791899016}, {2024., 0.718789614948621}, {2025., 0.743010196820977}, {2026., 0.765824304138152}, {2027., 0.7871931754248351}, {2028., 0.8071032595964517}, {2029., 0.8255633462375067}, {2030., 0.8426013352309537}, {2031., 0.8582608679576073}, {2032., 0.872605596657985}, {2033., 0.8856929136243203}, {2034., 0.8975935442910723}, {2035., 0.908383349450883}, {2036., 0.918139992510448}, {2037., 0.9269411756122073}, {2038., 0.9348632307395459}, {2039., 0.9419800348813127}, {2040., 0.9483622113129739}}</t>
-  </si>
-  <si>
-    <t>{{2000., 0.0010538098021218374}, {2001., 0.0012446008523183656}, {2002., 0.0017135737739719587}, {2003., 0.0021078606199152307}, {2004., 0.0023170240471729565}, {2005., 0.002868331963012829}, {2006., 0.005950763267772896}, {2007., 0.013766704389919397}, {2008., 0.02065398301416194}, {2009., 0.031201008926718527}, {2010., 0.033396468391812026}, {2011., 0.02541936055793641}, {2012., 0.024686563519844437}, {2013., 0.021714521861876807}, {2014., 0.02375488512184647}, {2015., 0.04097870081070929}, {2016., 0.060136760813538095}, {2017., 0.0708687548594069}, {2018., 0.08334613772467468}, {2019., 0.09778911959290042}, {2020., 0.11442249685722779}, {2021., 0.1334665797865945}, {2022., 0.15512507496293887}, {2023., 0.17956989907387272}, {2024., 0.2069233441229379}, {2025., 0.23723861905688173}, {2026., 0.2704805021323703}, {2027., 0.3065085240079705}, {2028., 0.34506556594665055}, {2029., 0.3857747691353227}, {2030., 0.42814702001985205}, {2031., 0.4715999533583726}, {2032., 0.5154875705920569}, {2033., 0.5591376040623186}, {2034., 0.601892191807504}, {2035., 0.6431467288585611}, {2036., 0.6823821479562066}, {2037., 0.7191872334719336}, {2038., 0.7532694769967263}, {2039., 0.7844549132679324}, {2040., 0.8126788804589606}}</t>
-  </si>
-  <si>
-    <t>{{2000., 0.0015395135304709076}, {2001., 0.0018858947548661663}, {2002., 0.0027850409416640943}, {2003., 0.0035845855426622055}, {2004., 0.00402250625987534}, {2005., 0.005216540918104136}, {2006., 0.012662057731646047}, {2007., 0.03477970004881396}, {2008., 0.056264691388675056}, {2009., 0.09086079234037313}, {2010., 0.09819651001071061}, {2011., 0.07172402863129393}, {2012., 0.06932435208342859}, {2013., 0.05967256492888333}, {2014., 0.06628404732740682}, {2015., 0.12366689455583384}, {2016., 0.18762915371207725}, {2017., 0.22250908590605822}, {2018., 0.26178365219674754}, {2019., 0.30526864591824715}, {2020., 0.352527533540964}, {2021., 0.4028601050952543}, {2022., 0.4553253180484114}, {2023., 0.5088013255534957}, {2024., 0.5620766743843504}, {2025., 0.6139578994776984}, {2026., 0.6633737783606525}, {2027., 0.7094575380187234}, {2028., 0.751594863694022}, {2029., 0.7894347995405786}, {2030., 0.8228689928200614}, {2031., 0.8519897397228017}, {2032., 0.8770383692139614}, {2033., 0.8983536221528492}, {2034., 0.9163264191246386}, {2035., 0.9313641189337413}, {2036., 0.9438648256996254}, {2037., 0.9542007274349061}, {2038., 0.9627087187542371}, {2039., 0.9696864167735408}, {2040., 0.9753918674936499}}</t>
-  </si>
-  <si>
-    <t>{{2014., 0.14384671972133006}, {2015., 0.1445795463808342}, {2016., 0.1445795463808342}, {2017., 0.1445795463808342}, {2018., 0.1440401326094711}, {2019., 0.14296632706954054}, {2020., 0.14189919957669597}, {2021., 0.14083872837367403}, {2022., 0.13978489146890596}, {2023., 0.13873766664191384}, {2024., 0.13821652675241128}, {2025., 0.13821652675241128}, {2026., 0.13821652675241128}, {2027., 0.13821652675241128}, {2028., 0.13821652675241128}, {2029., 0.13821652675241128}, {2030., 0.13821652675241128}, {2031., 0.13821652675241128}, {2032., 0.13821652675241128}, {2033., 0.13821652675241128}, {2034., 0.13821652675241128}, {2035., 0.13821652675241128}, {2036., 0.13821652675241128}, {2037., 0.13821652675241128}, {2038., 0.13821652675241128}, {2039., 0.13821652675241128}, {2040., 0.13821652675241128}}</t>
-  </si>
-  <si>
-    <t>{{2014., 0.1777729919640194}, {2015., 0.17881901993131918}, {2016., 0.17881901993131918}, {2017., 0.17881901993131918}, {2018., 0.1780490296854595}, {2019., 0.17651684590758204}, {2020., 0.17499504006346087}, {2021., 0.1734835901869267}, {2022., 0.17198247347472198}, {2023., 0.17049166630181797}, {2024., 0.1697501211888432}, {2025., 0.1697501211888432}, {2026., 0.1697501211888432}, {2027., 0.1697501211888432}, {2028., 0.1697501211888432}, {2029., 0.1697501211888432}, {2030., 0.1697501211888432}, {2031., 0.1697501211888432}, {2032., 0.1697501211888432}, {2033., 0.1697501211888432}, {2034., 0.1697501211888432}, {2035., 0.1697501211888432}, {2036., 0.1697501211888432}, {2037., 0.1697501211888432}, {2038., 0.1697501211888432}, {2039., 0.1697501211888432}, {2040., 0.1697501211888432}}</t>
-  </si>
-  <si>
-    <t>{{2014., 0.2001195217243932}, {2015., 0.22398673507917602}, {2016., 0.22398673507917602}, {2017., 0.22398673507917602}, {2018., 0.20623739674361471}, {2019., 0.17391888334449887}, {2020., 0.14573501463889665}, {2021., 0.12144693547629715}, {2022., 0.10072939378140046}, {2023., 0.08314745687447864}, {2024., 0.07540095066442434}, {2025., 0.07540095066442434}, {2026., 0.07540095066442434}, {2027., 0.07540095066442434}, {2028., 0.07540095066442434}, {2029., 0.07540095066442434}, {2030., 0.07540095066442434}, {2031., 0.07540095066442434}, {2032., 0.07540095066442434}, {2033., 0.07540095066442434}, {2034., 0.07540095066442434}, {2035., 0.07540095066442434}, {2036., 0.07540095066442434}, {2037., 0.07540095066442434}, {2038., 0.07540095066442434}, {2039., 0.07540095066442434}, {2040., 0.07540095066442434}}</t>
-  </si>
-  <si>
-    <t>{{2014., 0.3262508300695462}, {2015., 0.36543214210506586}, {2016., 0.36543214210506586}, {2017., 0.36543214210506586}, {2018., 0.33640097102084915}, {2019., 0.282033795531936}, {2020., 0.2334789474633774}, {2021., 0.19112779432679008}, {2022., 0.15490630442147837}, {2023., 0.12449280358187911}, {2024., 0.11130106838383595}, {2025., 0.11130106838383595}, {2026., 0.11130106838383595}, {2027., 0.11130106838383595}, {2028., 0.11130106838383595}, {2029., 0.11130106838383595}, {2030., 0.11130106838383595}, {2031., 0.11130106838383595}, {2032., 0.11130106838383595}, {2033., 0.11130106838383595}, {2034., 0.11130106838383595}, {2035., 0.11130106838383595}, {2036., 0.11130106838383595}, {2037., 0.11130106838383595}, {2038., 0.11130106838383595}, {2039., 0.11130106838383595}, {2040., 0.11130106838383595}}</t>
-  </si>
-  <si>
-    <t>{{2014., 0.02375488512184647}, {2015., 0.03021422718008873}, {2016., 0.03021422718008873}, {2017., 0.03021422718008873}, {2018., 0.025318117955568646}, {2019., 0.017736271203969468}, {2020., 0.01239603308844038}, {2021., 0.008649535851367107}, {2022., 0.006028444030235533}, {2023., 0.00419826494787435}, {2024., 0.0035027240479532686}, {2025., 0.0035027240479532686}, {2026., 0.0035027240479532686}, {2027., 0.0035027240479532686}, {2028., 0.0035027240479532686}, {2029., 0.0035027240479532686}, {2030., 0.0035027240479532686}, {2031., 0.0035027240479532686}, {2032., 0.0035027240479532686}, {2033., 0.0035027240479532686}, {2034., 0.0035027240479532686}, {2035., 0.0035027240479532686}, {2036., 0.0035027240479532686}, {2037., 0.0035027240479532686}, {2038., 0.0035027240479532686}, {2039., 0.0035027240479532686}, {2040., 0.0035027240479532686}}</t>
-  </si>
-  <si>
-    <t>{{2014., 0.06628404732740682}, {2015., 0.08757366274061319}, {2016., 0.08757366274061319}, {2017., 0.08757366274061319}, {2018., 0.07139207390279004}, {2019., 0.04700995098967218}, {2020., 0.03067979947744156}, {2021., 0.019903879963486207}, {2022., 0.012862650780396103}, {2023., 0.008291266094519646}, {2024., 0.00665242309105038}, {2025., 0.00665242309105038}, {2026., 0.00665242309105038}, {2027., 0.00665242309105038}, {2028., 0.00665242309105038}, {2029., 0.00665242309105038}, {2030., 0.00665242309105038}, {2031., 0.00665242309105038}, {2032., 0.00665242309105038}, {2033., 0.00665242309105038}, {2034., 0.00665242309105038}, {2035., 0.00665242309105038}, {2036., 0.00665242309105038}, {2037., 0.00665242309105038}, {2038., 0.00665242309105038}, {2039., 0.00665242309105038}, {2040., 0.00665242309105038}}</t>
+    <t>{{2000., 0.13657064539851993}, {2001., 0.1374041590145858}, {2002., 0.13900889049150053}, {2003., 0.14002113818646467}, {2004., 0.1401123977155662}, {2005., 0.1403494666525962}, {2006., 0.14260753627637232}, {2007., 0.1451292504430072}, {2008., 0.1458249749222418}, {2009., 0.14647754054778991}, {2010., 0.14601886786845192}, {2011., 0.14450899833251038}, {2012., 0.14413824123297722}, {2013., 0.1437514170742573}, {2014., 0.1440220160539417}, {2015., 0.14568931134867946}, {2016., 0.14689468430751132}, {2017., 0.1474217804202175}, {2018., 0.147950439880021}, {2019., 0.14848066496921725}, {2020., 0.14901245795594179}, {2021., 0.14954582109402628}, {2022., 0.15008075662285353}, {2023., 0.15061726676721202}, {2024., 0.1511553537371511}, {2025., 0.1516950197278347}, {2026., 0.15223626691939482}, {2027., 0.15277909747678523}, {2028., 0.15332351354963447}, {2029., 0.15386951727209783}, {2030., 0.15441711076271036}, {2031., 0.15496629612423835}, {2032., 0.15551707544353055}, {2033., 0.15606945079136994}, {2034., 0.1566234242223244}, {2035., 0.1571789977745966}, {2036., 0.1577361734698751}, {2037., 0.15829495331318374}, {2038., 0.15885533929273077}, {2039., 0.159417333379759}, {2040., 0.15998093752839404}}</t>
+  </si>
+  <si>
+    <t>{{2000., 0.1672447761395263}, {2001., 0.16838490025914485}, {2002., 0.17059390524009646}, {2003., 0.17203741572174508}, {2004., 0.17216759859103958}, {2005., 0.17250581304664625}, {2006., 0.17572959824617626}, {2007., 0.1793345093158443}, {2008., 0.1803299160978589}, {2009., 0.181263890084772}, {2010., 0.18060739049845256}, {2011., 0.17844738377431055}, {2012., 0.17791723931468867}, {2013., 0.17736423114582162}, {2014., 0.17775107057612413}, {2015., 0.1801357880880758}, {2016., 0.1818610782681895}, {2017., 0.18261584907540193}, {2018., 0.18337305027805323}, {2019., 0.18413268387577936}, {2020., 0.18489475181849133}, {2021., 0.18565925600597571}, {2022., 0.1864261982874946}, {2023., 0.18719558046138585}, {2024., 0.18796740427466457}, {2025., 0.1887416714226237}, {2026., 0.18951838354843537}, {2027., 0.19029754224275283}, {2028., 0.19107914904331286}, {2029., 0.1918632054345376}, {2030., 0.19264971284713853}, {2031., 0.19343867265771988}, {2032., 0.19423008618838222}, {2033., 0.1950239547063279}, {2034., 0.19582027942346678}, {2035., 0.196619061496021}, {2036., 0.19742030202413366}, {2037., 0.19822400205147525}, {2038., 0.1990301625648522}, {2039., 0.19983878449381692}, {2040., 0.20064986871027748}}</t>
+  </si>
+  <si>
+    <t>{{2000., 0.06604877600133414}, {2001., 0.08019622952433252}, {2002., 0.1153454298595444}, {2003., 0.14473201336118877}, {2004., 0.14389603351581193}, {2005., 0.14329926698271106}, {2006., 0.2104105370875646}, {2007., 0.30464937156956157}, {2008., 0.318387014006221}, {2009., 0.3282042358140226}, {2010., 0.29036630202066593}, {2011., 0.2180938896540108}, {2012., 0.19988098530801876}, {2013., 0.18805882119573128}, {2014., 0.19627415059803507}, {2015., 0.25247684380870167}, {2016., 0.2988238084298482}, {2017., 0.3204479593118442}, {2018., 0.34287173815949995}, {2019., 0.36601948607826057}, {2020., 0.3898029683879354}, {2021., 0.4141223871450471}, {2022., 0.4388678186247097}, {2023., 0.463921043748778}, {2024., 0.48915771427339794}, {2025., 0.5144497747983328}, {2026., 0.5396680426237586}, {2027., 0.5646848360658049}, {2028., 0.5893765382956496}, {2029., 0.6136259884813666}, {2030., 0.6373246044653113}, {2031., 0.6603741600481438}, {2032., 0.682688163192157}, {2033., 0.7041928067815055}, {2034., 0.7248274886453205}, {2035., 0.744544920290984}, {2036., 0.7633108626229151}, {2037., 0.7811035408549942}, {2038., 0.797912799501257}, {2039., 0.8137390619411295}, {2040., 0.828592158220585}}</t>
+  </si>
+  <si>
+    <t>{{2000., 0.09828222128242195}, {2001., 0.1233514576986295}, {2002., 0.186920724316232}, {2003., 0.24011229663829495}, {2004., 0.23860866504165362}, {2005., 0.237534827707103}, {2006., 0.35477461842426944}, {2007., 0.5021082388582964}, {2008., 0.5216321324154898}, {2009., 0.535273445047571}, {2010., 0.48127105059177977}, {2011., 0.36762138972119035}, {2012., 0.3369518541971243}, {2013., 0.31665713250107064}, {2014., 0.33079110135888384}, {2015., 0.42336284598295487}, {2016., 0.4936756650326213}, {2017., 0.5245173482422291}, {2018., 0.5551731399368754}, {2019., 0.5854146889771179}, {2020., 0.6150259401687788}, {2021., 0.6438090668955656}, {2022., 0.6715893104729831}, {2023., 0.6982185064894504}, {2024., 0.7235772010050124}, {2025., 0.7475753786490248}, {2026., 0.7701519264156322}, {2027., 0.7912730319567431}, {2028., 0.8109297594594532}, {2029., 0.8291350607583788}, {2030., 0.8459204688488198}, {2031., 0.8613326921863219}, {2032., 0.8754302883731204}, {2033., 0.8882805516859968}, {2034., 0.8999567056712467}, {2035., 0.9105354533556393}, {2036., 0.9200949055505477}, {2037., 0.9287128830008159}, {2038., 0.9364655705350117}, {2039., 0.9434264900920566}, {2040., 0.9496657534124141}}</t>
+  </si>
+  <si>
+    <t>{{2000., 0.0010685847015086862}, {2001., 0.0012620570548039225}, {2002., 0.0017376218032660975}, {2003., 0.002137450613788079}, {2004., 0.002349553620038939}, {2005., 0.002908607671806819}, {2006., 0.006034262184010099}, {2007., 0.013958872243948036}, {2008., 0.020940639316415738}, {2009., 0.031629918897721473}, {2010., 0.03385461019126052}, {2011., 0.0257706616258711}, {2012., 0.025027963419508605}, {2013., 0.022015617381833354}, {2014., 0.024083675824007573}, {2015., 0.041536778963044016}, {2016., 0.06094023636718055}, {2017., 0.07180520492831723}, {2018., 0.08443310733521954}, {2019., 0.0990448215465735}, {2020., 0.11586518884852051}, {2021., 0.13511370258054986}, {2022., 0.15699213651664254}, {2023., 0.18166911889860218}, {2024., 0.20926211548411866}, {2025., 0.23981790153303706}, {2026., 0.27329331608987795}, {2027., 0.3095387680870569}, {2028., 0.34828740039468553}, {2029., 0.38915278342437337}, {2030., 0.43163732182733017}, {2031., 0.4751521823471697}, {2032., 0.5190476787112047}, {2033., 0.5626510941154726}, {2034., 0.6053074106845356}, {2035., 0.6464178005018291}, {2036., 0.6854712073556832}, {2037., 0.7220657628724266}, {2038., 0.7559187080182168}, {2039., 0.7868654018972}, {2040., 0.8148494572034275}}</t>
+  </si>
+  <si>
+    <t>{{2000., 0.0015266025191050933}, {2001., 0.0018703964500134751}, {2002., 0.002763059476443869}, {2003., 0.003557054150904761}, {2004., 0.003992003313013024}, {2005., 0.005178137024666294}, {2006., 0.01257866687439472}, {2007., 0.034584106039589946}, {2008., 0.05597715983914153}, {2009., 0.0904483562740932}, {2010., 0.09776057717338038}, {2011., 0.0713776045105457}, {2012., 0.06898672253886895}, {2013., 0.059371581236029036}, {2014., 0.06595773735932557}, {2015., 0.12315635801364934}, {2016., 0.18697248020034016}, {2017., 0.22179410033636238}, {2018., 0.26101884446210183}, {2019., 0.3044665314590168}, {2020., 0.35170430937830194}, {2021., 0.4020347146271307}, {2022., 0.45451797037613406}, {2023., 0.508031669343705}, {2024., 0.5613619483023912}, {2025., 0.6133114144561991}, {2026., 0.6628040084346758}, {2027., 0.7089679341906215}, {2028., 0.7511843244836808}, {2029., 0.7890985987571952}, {2030., 0.8225999144095691}, {2031., 0.8517791957295128}, {2032., 0.8768773482708995}, {2033., 0.8982333966657541}, {2034., 0.9162390047488326}, {2035., 0.9313025204667768}, {2036., 0.9438231208073313}, {2037., 0.9541740406064283}, {2038., 0.9626931300139213}, {2039., 0.9696788386737969}, {2040., 0.9753899132180579}}</t>
+  </si>
+  <si>
+    <t>{{2014., 0.1440220160539417}, {2015., 0.14475193043245033}, {2016., 0.14475193043245033}, {2017., 0.14475193043245033}, {2018., 0.14421466194774393}, {2019., 0.14314509976388587}, {2020., 0.14208215297007806}, {2021., 0.14102580017154742}, {2022., 0.1399760197429271}, {2023., 0.13893278983352608}, {2024., 0.1383984855290011}, {2025., 0.1383984855290011}, {2026., 0.1383984855290011}, {2027., 0.1383984855290011}, {2028., 0.1383984855290011}, {2029., 0.1383984855290011}, {2030., 0.1383984855290011}, {2031., 0.1383984855290011}, {2032., 0.1383984855290011}, {2033., 0.1383984855290011}, {2034., 0.1383984855290011}, {2035., 0.1383984855290011}, {2036., 0.1383984855290011}, {2037., 0.1383984855290011}, {2038., 0.1383984855290011}, {2039., 0.1383984855290011}, {2040., 0.1383984855290011}}</t>
+  </si>
+  <si>
+    <t>{{2014., 0.17775107057612413}, {2015., 0.17879480736777476}, {2016., 0.17879480736777476}, {2017., 0.17879480736777476}, {2018., 0.17802650461664793}, {2019., 0.17649766306089876}, {2020., 0.1749791558502468}, {2021., 0.17347096114623906}, {2022., 0.1719730562804671}, {2023., 0.17048541776972478}, {2024., 0.16974544083991638}, {2025., 0.16974544083991638}, {2026., 0.16974544083991638}, {2027., 0.16974544083991638}, {2028., 0.16974544083991638}, {2029., 0.16974544083991638}, {2030., 0.16974544083991638}, {2031., 0.16974544083991638}, {2032., 0.16974544083991638}, {2033., 0.16974544083991638}, {2034., 0.16974544083991638}, {2035., 0.16974544083991638}, {2036., 0.16974544083991638}, {2037., 0.16974544083991638}, {2038., 0.16974544083991638}, {2039., 0.16974544083991638}, {2040., 0.16974544083991638}}</t>
+  </si>
+  <si>
+    <t>{{2014., 0.19627415059803507}, {2015., 0.2197042220894137}, {2016., 0.2197042220894137}, {2017., 0.2197042220894137}, {2018., 0.2022781902952739}, {2019., 0.17057377211444258}, {2020., 0.14294813374578214}, {2021., 0.11915391318688287}, {2022., 0.09886345394684061}, {2023., 0.08170770495809929}, {2024., 0.07418636501545257}, {2025., 0.07418636501545257}, {2026., 0.07418636501545257}, {2027., 0.07418636501545257}, {2028., 0.07418636501545257}, {2029., 0.07418636501545257}, {2030., 0.07418636501545257}, {2031., 0.07418636501545257}, {2032., 0.07418636501545257}, {2033., 0.07418636501545257}, {2034., 0.07418636501545257}, {2035., 0.07418636501545257}, {2036., 0.07418636501545257}, {2037., 0.07418636501545257}, {2038., 0.07418636501545257}, {2039., 0.07418636501545257}, {2040., 0.07418636501545257}}</t>
+  </si>
+  <si>
+    <t>{{2014., 0.33079110135888384}, {2015., 0.370296474759783}, {2016., 0.370296474759783}, {2017., 0.370296474759783}, {2018., 0.3410309794513187}, {2019., 0.2861372118015353}, {2020., 0.23690281082982356}, {2021., 0.19383962827576415}, {2022., 0.15699384641878364}, {2023., 0.12605669276540424}, {2024., 0.11264120491955608}, {2025., 0.11264120491955608}, {2026., 0.11264120491955608}, {2027., 0.11264120491955608}, {2028., 0.11264120491955608}, {2029., 0.11264120491955608}, {2030., 0.11264120491955608}, {2031., 0.11264120491955608}, {2032., 0.11264120491955608}, {2033., 0.11264120491955608}, {2034., 0.11264120491955608}, {2035., 0.11264120491955608}, {2036., 0.11264120491955608}, {2037., 0.11264120491955608}, {2038., 0.11264120491955608}, {2039., 0.11264120491955608}, {2040., 0.11264120491955608}}</t>
+  </si>
+  <si>
+    <t>{{2014., 0.024083675824007573}, {2015., 0.030629955569707917}, {2016., 0.030629955569707917}, {2017., 0.030629955569707917}, {2018., 0.025668051947644523}, {2019., 0.017983049495664438}, {2020., 0.01256925079418909}, {2021., 0.008770720182923757}, {2022., 0.006113029894738887}, {2023., 0.004257210082936959}, {2024., 0.0035519086337907164}, {2025., 0.0035519086337907164}, {2026., 0.0035519086337907164}, {2027., 0.0035519086337907164}, {2028., 0.0035519086337907164}, {2029., 0.0035519086337907164}, {2030., 0.0035519086337907164}, {2031., 0.0035519086337907164}, {2032., 0.0035519086337907164}, {2033., 0.0035519086337907164}, {2034., 0.0035519086337907164}, {2035., 0.0035519086337907164}, {2036., 0.0035519086337907164}, {2037., 0.0035519086337907164}, {2038., 0.0035519086337907164}, {2039., 0.0035519086337907164}, {2040., 0.0035519086337907164}}</t>
+  </si>
+  <si>
+    <t>{{2014., 0.06595773735932557}, {2015., 0.08717206859828842}, {2016., 0.08717206859828842}, {2017., 0.08717206859828842}, {2018., 0.07104685912447727}, {2019., 0.04676042282907431}, {2020., 0.030503379117721927}, {2021., 0.019781081021481635}, {2022., 0.012778121152935253}, {2023., 0.008233546311628965}, {2024., 0.0066048385027039185}, {2025., 0.0066048385027039185}, {2026., 0.0066048385027039185}, {2027., 0.0066048385027039185}, {2028., 0.0066048385027039185}, {2029., 0.0066048385027039185}, {2030., 0.0066048385027039185}, {2031., 0.0066048385027039185}, {2032., 0.0066048385027039185}, {2033., 0.0066048385027039185}, {2034., 0.0066048385027039185}, {2035., 0.0066048385027039185}, {2036., 0.0066048385027039185}, {2037., 0.0066048385027039185}, {2038., 0.0066048385027039185}, {2039., 0.0066048385027039185}, {2040., 0.0066048385027039185}}</t>
   </si>
   <si>
     <t>{2000., 0.15185446956228266}</t>
@@ -790,16 +790,16 @@
     <t>{2040., 0.004853341323010666}</t>
   </si>
   <si>
-    <t>{{2000., 0.06702898459317119}, {2001., 0.08159013804955667}, {2002., 0.11755859082649789}, {2003., 0.1475554894611385}, {2004., 0.14670236848054247}, {2005., 0.1460933565324088}, {2006., 0.21452196411564234}, {2007., 0.3102340565207154}, {2008., 0.3241410707933386}, {2009., 0.3340736043529067}, {2010., 0.2957651119137917}, {2011., 0.22234698276801207}, {2012., 0.2037948866705266}, {2013., 0.19174650678944913}, {2014., 0.2001195217243932}, {2015., 0.2573354885083769}, {2016., 0.3043338767497815}, {2017., 0.3262266215474003}, {2018., 0.3489043858471003}, {2019., 0.36051326704486764}, {2020., 0.36410122703639586}, {2021., 0.36770436325003153}, {2022., 0.36770436325003153}, {2023., 0.36770436325003153}, {2024., 0.36770436325003153}, {2025., 0.36770436325003153}, {2026., 0.36770436325003153}, {2027., 0.36770436325003153}, {2028., 0.36770436325003153}, {2029., 0.36770436325003153}, {2030., 0.36770436325003153}, {2031., 0.36770436325003153}, {2032., 0.36770436325003153}, {2033., 0.36770436325003153}, {2034., 0.36770436325003153}, {2035., 0.36770436325003153}, {2036., 0.36770436325003153}, {2037., 0.36770436325003153}, {2038., 0.36770436325003153}, {2039., 0.36770436325003153}, {2040., 0.36770436325003153}}</t>
-  </si>
-  <si>
-    <t>{{2000., 0.0971772855549401}, {2001., 0.12183292828576378}, {2002., 0.18432549575222124}, {2003., 0.2366365973042159}, {2004., 0.23515722558956625}, {2005., 0.2341007408565032}, {2006., 0.35003044735066996}, {2007., 0.4966175610432762}, {2008., 0.5161114893350227}, {2009., 0.5297419050188904}, {2010., 0.47583076050528633}, {2011., 0.3627770965773526}, {2012., 0.3323571174013129}, {2013., 0.31224719819742536}, {2014., 0.3262508300695462}, {2015., 0.4181598649980998}, {2016., 0.48820310562731706}, {2017., 0.5189937077760254}, {2018., 0.5496407169548153}, {2019., 0.5648385985473207}, {2020., 0.5694688975150902}, {2021., 0.5740870786249592}, {2022., 0.5740870786249592}, {2023., 0.5740870786249592}, {2024., 0.5740870786249592}, {2025., 0.5740870786249592}, {2026., 0.5740870786249592}, {2027., 0.5740870786249592}, {2028., 0.5740870786249592}, {2029., 0.5740870786249592}, {2030., 0.5740870786249592}, {2031., 0.5740870786249592}, {2032., 0.5740870786249592}, {2033., 0.5740870786249592}, {2034., 0.5740870786249592}, {2035., 0.5740870786249592}, {2036., 0.5740870786249592}, {2037., 0.5740870786249592}, {2038., 0.5740870786249592}, {2039., 0.5740870786249592}, {2040., 0.5740870786249592}}</t>
-  </si>
-  <si>
-    <t>{{2000., 0.0010538098021218374}, {2001., 0.0012446008523183656}, {2002., 0.0017135737739719587}, {2003., 0.0021078606199152307}, {2004., 0.0023170240471729565}, {2005., 0.002868331963012829}, {2006., 0.005950763267772896}, {2007., 0.013766704389919397}, {2008., 0.02065398301416194}, {2009., 0.031201008926718527}, {2010., 0.033396468391812026}, {2011., 0.02541936055793641}, {2012., 0.024686563519844437}, {2013., 0.021714521861876807}, {2014., 0.02375488512184647}, {2015., 0.04097870081070929}, {2016., 0.060136760813538095}, {2017., 0.0708687548594069}, {2018., 0.08334613772467468}, {2019., 0.09778911959290042}, {2020., 0.11442249685722779}, {2021., 0.1334665797865945}, {2022., 0.15512507496293887}, {2023., 0.17956989907387272}, {2024., 0.2069233441229379}, {2025., 0.22171066545686294}, {2026., 0.22731091893330793}, {2027., 0.2330102799094727}, {2028., 0.2330102799094727}, {2029., 0.2330102799094727}, {2030., 0.2330102799094727}, {2031., 0.2330102799094727}, {2032., 0.2330102799094727}, {2033., 0.2330102799094727}, {2034., 0.2330102799094727}, {2035., 0.2330102799094727}, {2036., 0.2330102799094727}, {2037., 0.2330102799094727}, {2038., 0.2330102799094727}, {2039., 0.2330102799094727}, {2040., 0.2330102799094727}}</t>
-  </si>
-  <si>
-    <t>{{2000., 0.0015395135304709076}, {2001., 0.0018858947548661663}, {2002., 0.0027850409416640943}, {2003., 0.0035845855426622055}, {2004., 0.00402250625987534}, {2005., 0.005216540918104136}, {2006., 0.012662057731646047}, {2007., 0.03477970004881396}, {2008., 0.056264691388675056}, {2009., 0.09086079234037313}, {2010., 0.09819651001071061}, {2011., 0.07172402863129393}, {2012., 0.06932435208342859}, {2013., 0.05967256492888333}, {2014., 0.06628404732740682}, {2015., 0.12366689455583384}, {2016., 0.18762915371207725}, {2017., 0.22250908590605822}, {2018., 0.26178365219674754}, {2019., 0.30526864591824715}, {2020., 0.352527533540964}, {2021., 0.4028601050952543}, {2022., 0.4553253180484114}, {2023., 0.5088013255534957}, {2024., 0.5620766743843504}, {2025., 0.5882624788644798}, {2026., 0.5977354961673182}, {2027., 0.6071361188140392}, {2028., 0.6071361188140392}, {2029., 0.6071361188140392}, {2030., 0.6071361188140392}, {2031., 0.6071361188140392}, {2032., 0.6071361188140392}, {2033., 0.6071361188140392}, {2034., 0.6071361188140392}, {2035., 0.6071361188140392}, {2036., 0.6071361188140392}, {2037., 0.6071361188140392}, {2038., 0.6071361188140392}, {2039., 0.6071361188140392}, {2040., 0.6071361188140392}}</t>
+    <t>{{2000., 0.06604877600133414}, {2001., 0.08019622952433252}, {2002., 0.1153454298595444}, {2003., 0.14473201336118877}, {2004., 0.14389603351581193}, {2005., 0.14329926698271106}, {2006., 0.2104105370875646}, {2007., 0.30464937156956157}, {2008., 0.318387014006221}, {2009., 0.3282042358140226}, {2010., 0.29036630202066593}, {2011., 0.2180938896540108}, {2012., 0.19988098530801876}, {2013., 0.18805882119573128}, {2014., 0.19627415059803507}, {2015., 0.25247684380870167}, {2016., 0.2988238084298482}, {2017., 0.3204479593118442}, {2018., 0.34287173815949995}, {2019., 0.3543603456551653}, {2020., 0.3579124848854273}, {2021., 0.36148029547295535}, {2022., 0.36148029547295535}, {2023., 0.36148029547295535}, {2024., 0.36148029547295535}, {2025., 0.36148029547295535}, {2026., 0.36148029547295535}, {2027., 0.36148029547295535}, {2028., 0.36148029547295535}, {2029., 0.36148029547295535}, {2030., 0.36148029547295535}, {2031., 0.36148029547295535}, {2032., 0.36148029547295535}, {2033., 0.36148029547295535}, {2034., 0.36148029547295535}, {2035., 0.36148029547295535}, {2036., 0.36148029547295535}, {2037., 0.36148029547295535}, {2038., 0.36148029547295535}, {2039., 0.36148029547295535}, {2040., 0.36148029547295535}}</t>
+  </si>
+  <si>
+    <t>{{2000., 0.09828222128242195}, {2001., 0.1233514576986295}, {2002., 0.186920724316232}, {2003., 0.24011229663829495}, {2004., 0.23860866504165362}, {2005., 0.237534827707103}, {2006., 0.35477461842426944}, {2007., 0.5021082388582964}, {2008., 0.5216321324154898}, {2009., 0.535273445047571}, {2010., 0.48127105059177977}, {2011., 0.36762138972119035}, {2012., 0.3369518541971243}, {2013., 0.31665713250107064}, {2014., 0.33079110135888384}, {2015., 0.42336284598295487}, {2016., 0.4936756650326213}, {2017., 0.5245173482422291}, {2018., 0.5551731399368754}, {2019., 0.5703595605871509}, {2020., 0.5749842615731844}, {2021., 0.5795958744879866}, {2022., 0.5795958744879866}, {2023., 0.5795958744879866}, {2024., 0.5795958744879866}, {2025., 0.5795958744879866}, {2026., 0.5795958744879866}, {2027., 0.5795958744879866}, {2028., 0.5795958744879866}, {2029., 0.5795958744879866}, {2030., 0.5795958744879866}, {2031., 0.5795958744879866}, {2032., 0.5795958744879866}, {2033., 0.5795958744879866}, {2034., 0.5795958744879866}, {2035., 0.5795958744879866}, {2036., 0.5795958744879866}, {2037., 0.5795958744879866}, {2038., 0.5795958744879866}, {2039., 0.5795958744879866}, {2040., 0.5795958744879866}}</t>
+  </si>
+  <si>
+    <t>{{2000., 0.0010685847015086862}, {2001., 0.0012620570548039225}, {2002., 0.0017376218032660975}, {2003., 0.002137450613788079}, {2004., 0.002349553620038939}, {2005., 0.002908607671806819}, {2006., 0.006034262184010099}, {2007., 0.013958872243948036}, {2008., 0.020940639316415738}, {2009., 0.031629918897721473}, {2010., 0.03385461019126052}, {2011., 0.0257706616258711}, {2012., 0.025027963419508605}, {2013., 0.022015617381833354}, {2014., 0.024083675824007573}, {2015., 0.041536778963044016}, {2016., 0.06094023636718055}, {2017., 0.07180520492831723}, {2018., 0.08443310733521954}, {2019., 0.0990448215465735}, {2020., 0.11586518884852051}, {2021., 0.13511370258054986}, {2022., 0.15699213651664254}, {2023., 0.18166911889860218}, {2024., 0.20926211548411866}, {2025., 0.2241700359556055}, {2026., 0.22981433106625085}, {2027., 0.23555759264556514}, {2028., 0.23555759264556514}, {2029., 0.23555759264556514}, {2030., 0.23555759264556514}, {2031., 0.23555759264556514}, {2032., 0.23555759264556514}, {2033., 0.23555759264556514}, {2034., 0.23555759264556514}, {2035., 0.23555759264556514}, {2036., 0.23555759264556514}, {2037., 0.23555759264556514}, {2038., 0.23555759264556514}, {2039., 0.23555759264556514}, {2040., 0.23555759264556514}}</t>
+  </si>
+  <si>
+    <t>{{2000., 0.0015266025191050933}, {2001., 0.0018703964500134751}, {2002., 0.002763059476443869}, {2003., 0.003557054150904761}, {2004., 0.003992003313013024}, {2005., 0.005178137024666294}, {2006., 0.01257866687439472}, {2007., 0.034584106039589946}, {2008., 0.05597715983914153}, {2009., 0.0904483562740932}, {2010., 0.09776057717338038}, {2011., 0.0713776045105457}, {2012., 0.06898672253886895}, {2013., 0.059371581236029036}, {2014., 0.06595773735932557}, {2015., 0.12315635801364934}, {2016., 0.18697248020034016}, {2017., 0.22179410033636238}, {2018., 0.26101884446210183}, {2019., 0.3044665314590168}, {2020., 0.35170430937830194}, {2021., 0.4020347146271307}, {2022., 0.45451797037613406}, {2023., 0.508031669343705}, {2024., 0.5613619483023912}, {2025., 0.5875804988194551}, {2026., 0.5970662271795832}, {2027., 0.6064798992793083}, {2028., 0.6064798992793083}, {2029., 0.6064798992793083}, {2030., 0.6064798992793083}, {2031., 0.6064798992793083}, {2032., 0.6064798992793083}, {2033., 0.6064798992793083}, {2034., 0.6064798992793083}, {2035., 0.6064798992793083}, {2036., 0.6064798992793083}, {2037., 0.6064798992793083}, {2038., 0.6064798992793083}, {2039., 0.6064798992793083}, {2040., 0.6064798992793083}}</t>
   </si>
   <si>
     <t>{2019., 0.4612550076988159}</t>
